--- a/data.xlsx
+++ b/data.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="380" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="380" windowWidth="25520" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Réponses au formulaire 1'!$A$1:$AY$1</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Horodateur</t>
   </si>
@@ -180,9 +183,6 @@
     <t>The Shining</t>
   </si>
   <si>
-    <t>Xous'</t>
-  </si>
-  <si>
     <t>Antoine</t>
   </si>
   <si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Eleniel</t>
-  </si>
-  <si>
-    <t>ClémentG</t>
   </si>
   <si>
     <t>Lucas</t>
@@ -252,9 +249,6 @@
     <t>ThomasD</t>
   </si>
   <si>
-    <t>Élodie</t>
-  </si>
-  <si>
     <t>Gillax</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Ldep</t>
   </si>
   <si>
-    <t>Léo</t>
-  </si>
-  <si>
     <t>Kro</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
   </si>
   <si>
     <t>Matthieu</t>
-  </si>
-  <si>
-    <t>LéoB</t>
   </si>
   <si>
     <t>Ael</t>
@@ -309,19 +297,7 @@
     <t>Nahw</t>
   </si>
   <si>
-    <t>Félix</t>
-  </si>
-  <si>
-    <t>MélanieG</t>
-  </si>
-  <si>
-    <t>Héloïse</t>
-  </si>
-  <si>
     <t>Anthony</t>
-  </si>
-  <si>
-    <t>Valérian</t>
   </si>
   <si>
     <t>Justine</t>
@@ -373,9 +349,6 @@
   </si>
   <si>
     <t>Lolotte</t>
-  </si>
-  <si>
-    <t>Cinémines</t>
   </si>
   <si>
     <t>Nastia</t>
@@ -517,6 +490,108 @@
   </si>
   <si>
     <t>RE Extinction</t>
+  </si>
+  <si>
+    <t>HenriD</t>
+  </si>
+  <si>
+    <t>NicoB</t>
+  </si>
+  <si>
+    <t>AntoineM</t>
+  </si>
+  <si>
+    <t>ThomasN</t>
+  </si>
+  <si>
+    <t>ElPadreDu5-4</t>
+  </si>
+  <si>
+    <t>Horst</t>
+  </si>
+  <si>
+    <t>Florent</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Helene</t>
+  </si>
+  <si>
+    <t>Rantala</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Pipou</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Cloclo</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
+    <t>Giandelio</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>Lucile</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Geekman</t>
+  </si>
+  <si>
+    <t>Bignamax</t>
+  </si>
+  <si>
+    <t>Cinemines</t>
+  </si>
+  <si>
+    <t>ClementG</t>
+  </si>
+  <si>
+    <t>Elodie</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Heloise</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>LeoB</t>
+  </si>
+  <si>
+    <t>MelanieG</t>
+  </si>
+  <si>
+    <t>Valerian</t>
+  </si>
+  <si>
+    <t>Xous</t>
   </si>
 </sst>
 </file>
@@ -838,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY87"/>
+  <dimension ref="A1:AY107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1010,7 +1085,7 @@
         <v>42504.529463437502</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1081,7 +1156,7 @@
         <v>42504.53767636574</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1128,7 +1203,7 @@
         <v>42504.586534328701</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1247,7 +1322,7 @@
         <v>42504.740078402778</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1294,7 +1369,7 @@
         <v>42505.629903240741</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -1380,7 +1455,7 @@
         <v>42507.851346886571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1466,7 +1541,7 @@
         <v>42507.851980405088</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1582,7 +1657,7 @@
         <v>42507.852326932873</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1689,7 +1764,7 @@
         <v>42507.852376921292</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1844,7 +1919,7 @@
         <v>42507.852387997686</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1987,7 +2062,7 @@
         <v>42507.852602905092</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -2040,7 +2115,7 @@
         <v>42507.852982777782</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2126,7 +2201,7 @@
         <v>42507.853980752319</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -2227,7 +2302,7 @@
         <v>42507.854740150462</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -2355,7 +2430,7 @@
         <v>42507.854883587963</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -2426,7 +2501,7 @@
         <v>42507.855532696762</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2509,7 +2584,7 @@
         <v>42507.856177604168</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2664,7 +2739,7 @@
         <v>42507.857781099534</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -2816,7 +2891,7 @@
         <v>42507.858265763891</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
@@ -2866,7 +2941,7 @@
         <v>42507.860016481485</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -2946,7 +3021,7 @@
         <v>42507.860634386576</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1">
         <v>5</v>
@@ -3002,7 +3077,7 @@
         <v>42507.861659236107</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -3154,7 +3229,7 @@
         <v>42507.862693819443</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -3240,7 +3315,7 @@
         <v>42507.863203622685</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -3320,7 +3395,7 @@
         <v>42507.865164976851</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -3391,7 +3466,7 @@
         <v>42507.865306539352</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -3480,7 +3555,7 @@
         <v>42507.866800208329</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -3569,7 +3644,7 @@
         <v>42507.867895115742</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -3643,7 +3718,7 @@
         <v>42507.868554421293</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -3741,7 +3816,7 @@
         <v>42507.869370243061</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -3845,7 +3920,7 @@
         <v>42507.869595775468</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -3904,7 +3979,7 @@
         <v>42507.870876365741</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -3993,7 +4068,7 @@
         <v>42507.871082013888</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -4055,7 +4130,7 @@
         <v>42507.871543773144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -4126,7 +4201,7 @@
         <v>42507.872110277778</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1">
         <v>4</v>
@@ -4197,7 +4272,7 @@
         <v>42507.875154236113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
@@ -4295,7 +4370,7 @@
         <v>42507.876067835648</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -4396,7 +4471,7 @@
         <v>42507.876478067134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -4509,7 +4584,7 @@
         <v>42507.880684849537</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -4610,7 +4685,7 @@
         <v>42507.881783194447</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -4765,7 +4840,7 @@
         <v>42507.881982812498</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -4836,7 +4911,7 @@
         <v>42507.889247268518</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -4886,7 +4961,7 @@
         <v>42507.88967311343</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -4990,7 +5065,7 @@
         <v>42507.88983782407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4998,7 +5073,7 @@
         <v>42507.8915284838</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
@@ -5120,7 +5195,7 @@
         <v>42507.89308927083</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -5230,7 +5305,7 @@
         <v>42507.89321642361</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
@@ -5334,7 +5409,7 @@
         <v>42507.894913055556</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -5423,7 +5498,7 @@
         <v>42507.89799456019</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -5509,7 +5584,7 @@
         <v>42507.90049782407</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -5583,7 +5658,7 @@
         <v>42507.901989861115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -5678,7 +5753,7 @@
         <v>42507.902454710653</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -5761,7 +5836,7 @@
         <v>42507.903673148146</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
@@ -5868,7 +5943,7 @@
         <v>42507.90450981482</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>4</v>
@@ -5978,7 +6053,7 @@
         <v>42507.905110046297</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -6073,7 +6148,7 @@
         <v>42507.909728252314</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
@@ -6168,7 +6243,7 @@
         <v>42507.911416643517</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -6323,7 +6398,7 @@
         <v>42507.912929641199</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1">
         <v>4</v>
@@ -6409,7 +6484,7 @@
         <v>42507.913213043983</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -6525,7 +6600,7 @@
         <v>42507.917177557872</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1">
         <v>4</v>
@@ -6611,7 +6686,7 @@
         <v>42507.918750879631</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -6724,7 +6799,7 @@
         <v>42507.919851203704</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -6831,7 +6906,7 @@
         <v>42507.922885358799</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -6923,7 +6998,7 @@
         <v>42507.927227986111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F65" s="1">
         <v>4</v>
@@ -6997,7 +7072,7 @@
         <v>42507.93595024306</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
@@ -7152,7 +7227,7 @@
         <v>42507.936315879633</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G67" s="1">
         <v>2</v>
@@ -7193,7 +7268,7 @@
         <v>42507.937984189819</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -7282,7 +7357,7 @@
         <v>42507.94620888889</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1">
         <v>4</v>
@@ -7437,7 +7512,7 @@
         <v>42507.948507291665</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
@@ -7562,7 +7637,7 @@
         <v>42507.949858402775</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
@@ -7669,7 +7744,7 @@
         <v>42507.951965266198</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -7782,7 +7857,7 @@
         <v>42507.954790798613</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
@@ -7850,7 +7925,7 @@
         <v>42507.957638252316</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D74" s="1">
         <v>4</v>
@@ -7912,7 +7987,7 @@
         <v>42507.959799930555</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -8013,7 +8088,7 @@
         <v>42507.966427465275</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
@@ -8099,7 +8174,7 @@
         <v>42507.968268796292</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G77" s="1">
         <v>5</v>
@@ -8143,7 +8218,7 @@
         <v>42507.973848009264</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C78" s="1">
         <v>4</v>
@@ -8205,7 +8280,7 @@
         <v>42507.97404100695</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D79" s="1">
         <v>4</v>
@@ -8297,7 +8372,7 @@
         <v>42507.977967858795</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
@@ -8377,7 +8452,7 @@
         <v>42507.97862814815</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -8451,7 +8526,7 @@
         <v>42507.984914293978</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -8603,7 +8678,7 @@
         <v>42507.991336782405</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C83" s="1">
         <v>4</v>
@@ -8692,7 +8767,7 @@
         <v>42508.005334791669</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
@@ -8763,7 +8838,7 @@
         <v>42508.015438344912</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
@@ -8858,7 +8933,7 @@
         <v>42508.314905416672</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
@@ -8935,7 +9010,7 @@
         <v>42508.343067800924</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -9034,17 +9109,2278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="88" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>42508.456319444442</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="L88" s="1">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88" s="1">
+        <v>3</v>
+      </c>
+      <c r="O88" s="1">
+        <v>3</v>
+      </c>
+      <c r="P88" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>5</v>
+      </c>
+      <c r="R88" s="1">
+        <v>5</v>
+      </c>
+      <c r="S88" s="1">
+        <v>5</v>
+      </c>
+      <c r="T88" s="1">
+        <v>4</v>
+      </c>
+      <c r="U88" s="1">
+        <v>5</v>
+      </c>
+      <c r="V88" s="1">
+        <v>4</v>
+      </c>
+      <c r="W88" s="1">
+        <v>5</v>
+      </c>
+      <c r="X88">
+        <v>4</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH88">
+        <v>4</v>
+      </c>
+      <c r="AI88">
+        <v>5</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN88" s="1"/>
+      <c r="AO88">
+        <v>5</v>
+      </c>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>42508.461608796293</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89" s="1">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89" s="1">
+        <v>3</v>
+      </c>
+      <c r="O89" s="1">
+        <v>3</v>
+      </c>
+      <c r="P89" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>3</v>
+      </c>
+      <c r="R89" s="1">
+        <v>3</v>
+      </c>
+      <c r="S89" s="1">
+        <v>3</v>
+      </c>
+      <c r="T89" s="1">
+        <v>3</v>
+      </c>
+      <c r="U89" s="1">
+        <v>4</v>
+      </c>
+      <c r="V89" s="1">
+        <v>3</v>
+      </c>
+      <c r="W89" s="1">
+        <v>3</v>
+      </c>
+      <c r="X89">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC89">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH89">
+        <v>4</v>
+      </c>
+      <c r="AI89">
+        <v>3</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM89">
+        <v>3</v>
+      </c>
+      <c r="AN89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO89">
+        <v>4</v>
+      </c>
+      <c r="AP89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>3</v>
+      </c>
+      <c r="AX89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>42508.467870370368</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" s="1">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="L90" s="1">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1">
+        <v>3</v>
+      </c>
+      <c r="P90" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>4</v>
+      </c>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1">
+        <v>4</v>
+      </c>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1">
+        <v>4</v>
+      </c>
+      <c r="V90" s="1">
+        <v>3</v>
+      </c>
+      <c r="W90" s="1">
+        <v>4</v>
+      </c>
+      <c r="X90">
+        <v>4</v>
+      </c>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB90" s="1"/>
+      <c r="AD90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH90">
+        <v>3</v>
+      </c>
+      <c r="AI90">
+        <v>3</v>
+      </c>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN90" s="1"/>
+      <c r="AO90">
+        <v>4</v>
+      </c>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU90">
+        <v>1</v>
+      </c>
+      <c r="AX90" s="1"/>
+    </row>
+    <row r="91" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>42508.476979166669</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91" s="1">
+        <v>3</v>
+      </c>
+      <c r="O91" s="1">
+        <v>4</v>
+      </c>
+      <c r="P91" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>4</v>
+      </c>
+      <c r="R91" s="1">
+        <v>5</v>
+      </c>
+      <c r="S91" s="1">
+        <v>5</v>
+      </c>
+      <c r="T91" s="1">
+        <v>2</v>
+      </c>
+      <c r="U91" s="1">
+        <v>4</v>
+      </c>
+      <c r="V91" s="1">
+        <v>1</v>
+      </c>
+      <c r="W91" s="1">
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH91">
+        <v>2</v>
+      </c>
+      <c r="AI91">
+        <v>3</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL91" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM91">
+        <v>3</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <v>2</v>
+      </c>
+      <c r="AP91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR91" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>42508.480266203704</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="L92" s="1">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92" s="1">
+        <v>3</v>
+      </c>
+      <c r="O92" s="1">
+        <v>4</v>
+      </c>
+      <c r="P92" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1">
+        <v>2</v>
+      </c>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1">
+        <v>5</v>
+      </c>
+      <c r="V92" s="1">
+        <v>5</v>
+      </c>
+      <c r="W92" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH92">
+        <v>5</v>
+      </c>
+      <c r="AI92">
+        <v>4</v>
+      </c>
+      <c r="AJ92" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK92" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL92" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN92" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92" s="1"/>
+      <c r="AY92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>42508.493506944447</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>4</v>
+      </c>
+      <c r="R93" s="1">
+        <v>3</v>
+      </c>
+      <c r="S93" s="1">
+        <v>4</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>3</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0</v>
+      </c>
+      <c r="W93" s="1">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC93">
+        <v>2</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH93">
+        <v>4</v>
+      </c>
+      <c r="AI93">
+        <v>3</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>5</v>
+      </c>
+      <c r="AP93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT93" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
+      <c r="AW93">
+        <v>1</v>
+      </c>
+      <c r="AX93" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>42508.510115740741</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="L94" s="1">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94" s="1">
+        <v>4</v>
+      </c>
+      <c r="O94" s="1">
+        <v>4</v>
+      </c>
+      <c r="P94" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>3</v>
+      </c>
+      <c r="R94" s="1">
+        <v>4</v>
+      </c>
+      <c r="S94" s="1">
+        <v>4</v>
+      </c>
+      <c r="T94" s="1">
+        <v>5</v>
+      </c>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="Y94" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH94">
+        <v>4</v>
+      </c>
+      <c r="AI94">
+        <v>3</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>42508.586782407408</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1">
+        <v>2</v>
+      </c>
+      <c r="P95" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>5</v>
+      </c>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1">
+        <v>2</v>
+      </c>
+      <c r="V95" s="1">
+        <v>3</v>
+      </c>
+      <c r="W95" s="1">
+        <v>4</v>
+      </c>
+      <c r="X95">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH95">
+        <v>4</v>
+      </c>
+      <c r="AI95">
+        <v>5</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN95" s="1"/>
+      <c r="AO95">
+        <v>5</v>
+      </c>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AX95" s="1"/>
+      <c r="AY95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>42508.596087962964</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96" s="1">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="L96" s="1">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2</v>
+      </c>
+      <c r="O96" s="1">
+        <v>2</v>
+      </c>
+      <c r="P96" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>4</v>
+      </c>
+      <c r="R96" s="1">
+        <v>3</v>
+      </c>
+      <c r="S96" s="1">
+        <v>3</v>
+      </c>
+      <c r="T96" s="1">
+        <v>5</v>
+      </c>
+      <c r="U96" s="1">
+        <v>2</v>
+      </c>
+      <c r="V96" s="1">
+        <v>1</v>
+      </c>
+      <c r="W96" s="1">
+        <v>3</v>
+      </c>
+      <c r="X96">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH96">
+        <v>4</v>
+      </c>
+      <c r="AI96">
+        <v>2</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN96" s="1"/>
+      <c r="AO96">
+        <v>5</v>
+      </c>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>42508.61414351852</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97" s="1">
+        <v>4</v>
+      </c>
+      <c r="O97" s="1">
+        <v>3</v>
+      </c>
+      <c r="P97" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>5</v>
+      </c>
+      <c r="R97" s="1">
+        <v>5</v>
+      </c>
+      <c r="S97" s="1">
+        <v>4</v>
+      </c>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1">
+        <v>3</v>
+      </c>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1">
+        <v>4</v>
+      </c>
+      <c r="X97">
+        <v>3</v>
+      </c>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC97">
+        <v>3</v>
+      </c>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH97">
+        <v>1</v>
+      </c>
+      <c r="AI97">
+        <v>4</v>
+      </c>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AN97" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO97">
+        <v>5</v>
+      </c>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>42508.650219907409</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98" s="1">
+        <v>3</v>
+      </c>
+      <c r="L98" s="1">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1">
+        <v>4</v>
+      </c>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1">
+        <v>3</v>
+      </c>
+      <c r="R98" s="1">
+        <v>4</v>
+      </c>
+      <c r="S98" s="1">
+        <v>4</v>
+      </c>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB98" s="1"/>
+      <c r="AD98" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH98">
+        <v>4</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX98" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>42508.680034722223</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1">
+        <v>4</v>
+      </c>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1">
+        <v>5</v>
+      </c>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1">
+        <v>3</v>
+      </c>
+      <c r="W99" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG99" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH99">
+        <v>3</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99" s="1"/>
+      <c r="AY99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>42508.735717592594</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" s="1">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100" s="1">
+        <v>3</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+      <c r="P100" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>3</v>
+      </c>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1">
+        <v>4</v>
+      </c>
+      <c r="V100" s="1">
+        <v>3</v>
+      </c>
+      <c r="W100" s="1">
+        <v>4</v>
+      </c>
+      <c r="X100">
+        <v>2</v>
+      </c>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH100">
+        <v>3</v>
+      </c>
+      <c r="AI100">
+        <v>2</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100">
+        <v>4</v>
+      </c>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX100" s="1"/>
+      <c r="AY100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>42508.752395833333</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="L101" s="1">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1">
+        <v>4</v>
+      </c>
+      <c r="R101" s="1">
+        <v>3</v>
+      </c>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1">
+        <v>4</v>
+      </c>
+      <c r="V101" s="1">
+        <v>3</v>
+      </c>
+      <c r="W101" s="1">
+        <v>4</v>
+      </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK101" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101">
+        <v>5</v>
+      </c>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101">
+        <v>3</v>
+      </c>
+      <c r="AX101" s="1"/>
+    </row>
+    <row r="102" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>42508.776805555557</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102" s="1">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102" s="1">
+        <v>5</v>
+      </c>
+      <c r="O102" s="1">
+        <v>5</v>
+      </c>
+      <c r="P102" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>4</v>
+      </c>
+      <c r="R102" s="1">
+        <v>4</v>
+      </c>
+      <c r="S102" s="1">
+        <v>4</v>
+      </c>
+      <c r="T102" s="1">
+        <v>3</v>
+      </c>
+      <c r="U102" s="1">
+        <v>3</v>
+      </c>
+      <c r="V102" s="1">
+        <v>5</v>
+      </c>
+      <c r="W102" s="1">
+        <v>2</v>
+      </c>
+      <c r="X102">
+        <v>2</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH102">
+        <v>3</v>
+      </c>
+      <c r="AI102">
+        <v>3</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM102">
+        <v>3</v>
+      </c>
+      <c r="AN102" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO102">
+        <v>3</v>
+      </c>
+      <c r="AP102" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ102" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT102" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>42508.844560185185</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+      <c r="L103" s="1">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103" s="1">
+        <v>3</v>
+      </c>
+      <c r="O103" s="1">
+        <v>3</v>
+      </c>
+      <c r="P103" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>4</v>
+      </c>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1">
+        <v>4</v>
+      </c>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1">
+        <v>3</v>
+      </c>
+      <c r="V103" s="1">
+        <v>4</v>
+      </c>
+      <c r="W103" s="1">
+        <v>4</v>
+      </c>
+      <c r="X103">
+        <v>4</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH103">
+        <v>4</v>
+      </c>
+      <c r="AI103">
+        <v>5</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN103" s="1"/>
+      <c r="AO103">
+        <v>5</v>
+      </c>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AX103" s="1"/>
+    </row>
+    <row r="104" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>42508.960740740738</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="L104" s="1">
+        <v>4</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1">
+        <v>5</v>
+      </c>
+      <c r="R104" s="1">
+        <v>4</v>
+      </c>
+      <c r="S104" s="1">
+        <v>4</v>
+      </c>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1">
+        <v>2</v>
+      </c>
+      <c r="W104" s="1">
+        <v>3</v>
+      </c>
+      <c r="X104">
+        <v>5</v>
+      </c>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AX104" s="1"/>
+    </row>
+    <row r="105" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>42509.307233796295</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1">
+        <v>2</v>
+      </c>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1">
+        <v>2</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC105">
+        <v>2</v>
+      </c>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG105" s="1"/>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN105" s="1"/>
+      <c r="AO105">
+        <v>5</v>
+      </c>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AX105" s="1"/>
+      <c r="AY105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>42509.881030092591</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+      <c r="K106">
+        <v>4</v>
+      </c>
+      <c r="L106" s="1">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1">
+        <v>5</v>
+      </c>
+      <c r="R106" s="1">
+        <v>4</v>
+      </c>
+      <c r="S106" s="1">
+        <v>3</v>
+      </c>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1">
+        <v>3</v>
+      </c>
+      <c r="W106" s="1">
+        <v>2</v>
+      </c>
+      <c r="X106">
+        <v>4</v>
+      </c>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL106" s="1"/>
+      <c r="AN106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO106">
+        <v>3</v>
+      </c>
+      <c r="AP106" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AX106" s="1"/>
+      <c r="AY106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>42510.879537037035</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1">
+        <v>3</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2</v>
+      </c>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1">
+        <v>3</v>
+      </c>
+      <c r="V107" s="1">
+        <v>0</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC107">
+        <v>4</v>
+      </c>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AN107" s="1"/>
+      <c r="AO107">
+        <v>4</v>
+      </c>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AY1">
+    <sortState ref="A2:AY107">
+      <sortCondition ref="A1:A107"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX94"/>
+  <dimension ref="A1:AX107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9056,10 +11392,10 @@
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D1" t="str">
         <f>'Réponses au formulaire 1'!E1</f>
@@ -9074,7 +11410,7 @@
         <v>Forrest Gump</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H1" t="str">
         <f>'Réponses au formulaire 1'!I1</f>
@@ -9085,29 +11421,29 @@
         <v>Full Metal Jacket</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P1" t="str">
         <f>'Réponses au formulaire 1'!Q1</f>
         <v>Casino Royale</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="R1" t="str">
         <f>'Réponses au formulaire 1'!S1</f>
@@ -9122,40 +11458,40 @@
         <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="W1" t="str">
         <f>'Réponses au formulaire 1'!X1</f>
         <v>Bienvenue chez les ch'tis</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="str">
         <f>'Réponses au formulaire 1'!Z1</f>
         <v>L'aile ou la cuisse</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AD1" t="str">
         <f>'Réponses au formulaire 1'!AE1</f>
         <v>Twilight</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF1" t="str">
         <f>'Réponses au formulaire 1'!AG1</f>
@@ -9170,51 +11506,51 @@
         <v>WALL-E</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AS1" t="str">
         <f>'Réponses au formulaire 1'!AT1</f>
         <v>The Revenant</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AV1" t="str">
         <f>'Réponses au formulaire 1'!AW1</f>
         <v>High School Musical</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AX1" t="str">
         <f>'Réponses au formulaire 1'!AY1</f>
@@ -9224,7 +11560,7 @@
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>'Réponses au formulaire 1'!B2</f>
-        <v>Xous'</v>
+        <v>Xous</v>
       </c>
       <c r="B2">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C2),-1,'Réponses au formulaire 1'!C2)</f>
@@ -10032,7 +12368,7 @@
     <row r="6" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Réponses au formulaire 1'!B6</f>
-        <v>ClémentG</v>
+        <v>ClementG</v>
       </c>
       <c r="B6">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C6),-1,'Réponses au formulaire 1'!C6)</f>
@@ -12254,7 +14590,7 @@
     <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Réponses au formulaire 1'!B17</f>
-        <v>Thomas</v>
+        <v>ThomasN</v>
       </c>
       <c r="B17">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C17),-1,'Réponses au formulaire 1'!C17)</f>
@@ -13668,7 +16004,7 @@
     <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Réponses au formulaire 1'!B24</f>
-        <v>Antoine</v>
+        <v>AntoineM</v>
       </c>
       <c r="B24">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C24),-1,'Réponses au formulaire 1'!C24)</f>
@@ -14476,7 +16812,7 @@
     <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Réponses au formulaire 1'!B28</f>
-        <v>Élodie</v>
+        <v>Elodie</v>
       </c>
       <c r="B28">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C28),-1,'Réponses au formulaire 1'!C28)</f>
@@ -15688,7 +18024,7 @@
     <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Réponses au formulaire 1'!B34</f>
-        <v>Léo</v>
+        <v>Leo</v>
       </c>
       <c r="B34">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C34),-1,'Réponses au formulaire 1'!C34)</f>
@@ -16496,7 +18832,7 @@
     <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Réponses au formulaire 1'!B38</f>
-        <v>LéoB</v>
+        <v>LeoB</v>
       </c>
       <c r="B38">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C38),-1,'Réponses au formulaire 1'!C38)</f>
@@ -18314,7 +20650,7 @@
     <row r="47" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Réponses au formulaire 1'!B47</f>
-        <v>Félix</v>
+        <v>Felix</v>
       </c>
       <c r="B47">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C47),-1,'Réponses au formulaire 1'!C47)</f>
@@ -18516,7 +20852,7 @@
     <row r="48" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Réponses au formulaire 1'!B48</f>
-        <v>MélanieG</v>
+        <v>MelanieG</v>
       </c>
       <c r="B48">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C48),-1,'Réponses au formulaire 1'!C48)</f>
@@ -18718,7 +21054,7 @@
     <row r="49" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Réponses au formulaire 1'!B49</f>
-        <v>Henri</v>
+        <v>HenriD</v>
       </c>
       <c r="B49">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C49),-1,'Réponses au formulaire 1'!C49)</f>
@@ -18920,7 +21256,7 @@
     <row r="50" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Réponses au formulaire 1'!B50</f>
-        <v>Héloïse</v>
+        <v>Heloise</v>
       </c>
       <c r="B50">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C50),-1,'Réponses au formulaire 1'!C50)</f>
@@ -19324,7 +21660,7 @@
     <row r="52" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Réponses au formulaire 1'!B52</f>
-        <v>Valérian</v>
+        <v>Valerian</v>
       </c>
       <c r="B52">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C52),-1,'Réponses au formulaire 1'!C52)</f>
@@ -19526,7 +21862,7 @@
     <row r="53" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
         <f>'Réponses au formulaire 1'!B53</f>
-        <v>Nico</v>
+        <v>NicoB</v>
       </c>
       <c r="B53">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C53),-1,'Réponses au formulaire 1'!C53)</f>
@@ -23162,7 +25498,7 @@
     <row r="71" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>'Réponses au formulaire 1'!B71</f>
-        <v>Cinémines</v>
+        <v>Cinemines</v>
       </c>
       <c r="B71">
         <f>IF(ISBLANK('Réponses au formulaire 1'!C71),-1,'Réponses au formulaire 1'!C71)</f>
@@ -26593,13 +28929,4046 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:50" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" t="str">
+        <f>'Réponses au formulaire 1'!B88</f>
+        <v>ElPadreDu5-4</v>
+      </c>
+      <c r="B88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C88),-1,'Réponses au formulaire 1'!C88)</f>
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D88),-1,'Réponses au formulaire 1'!D88)</f>
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E88),-1,'Réponses au formulaire 1'!E88)</f>
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F88),-1,'Réponses au formulaire 1'!F88)</f>
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G88),-1,'Réponses au formulaire 1'!G88)</f>
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H88),-1,'Réponses au formulaire 1'!H88)</f>
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I88),-1,'Réponses au formulaire 1'!I88)</f>
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J88),-1,'Réponses au formulaire 1'!J88)</f>
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K88),-1,'Réponses au formulaire 1'!K88)</f>
+        <v>-1</v>
+      </c>
+      <c r="K88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L88),-1,'Réponses au formulaire 1'!L88)</f>
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M88),-1,'Réponses au formulaire 1'!M88)</f>
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N88),-1,'Réponses au formulaire 1'!N88)</f>
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O88),-1,'Réponses au formulaire 1'!O88)</f>
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P88),-1,'Réponses au formulaire 1'!P88)</f>
+        <v>4</v>
+      </c>
+      <c r="P88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q88),-1,'Réponses au formulaire 1'!Q88)</f>
+        <v>5</v>
+      </c>
+      <c r="Q88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R88),-1,'Réponses au formulaire 1'!R88)</f>
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S88),-1,'Réponses au formulaire 1'!S88)</f>
+        <v>5</v>
+      </c>
+      <c r="S88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T88),-1,'Réponses au formulaire 1'!T88)</f>
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U88),-1,'Réponses au formulaire 1'!U88)</f>
+        <v>5</v>
+      </c>
+      <c r="U88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V88),-1,'Réponses au formulaire 1'!V88)</f>
+        <v>4</v>
+      </c>
+      <c r="V88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W88),-1,'Réponses au formulaire 1'!W88)</f>
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X88),-1,'Réponses au formulaire 1'!X88)</f>
+        <v>4</v>
+      </c>
+      <c r="X88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y88),-1,'Réponses au formulaire 1'!Y88)</f>
+        <v>5</v>
+      </c>
+      <c r="Y88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z88),-1,'Réponses au formulaire 1'!Z88)</f>
+        <v>5</v>
+      </c>
+      <c r="Z88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA88),-1,'Réponses au formulaire 1'!AA88)</f>
+        <v>4</v>
+      </c>
+      <c r="AA88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB88),-1,'Réponses au formulaire 1'!AB88)</f>
+        <v>5</v>
+      </c>
+      <c r="AB88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC88),-1,'Réponses au formulaire 1'!AC88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD88),-1,'Réponses au formulaire 1'!AD88)</f>
+        <v>3</v>
+      </c>
+      <c r="AD88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE88),-1,'Réponses au formulaire 1'!AE88)</f>
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF88),-1,'Réponses au formulaire 1'!AF88)</f>
+        <v>2</v>
+      </c>
+      <c r="AF88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG88),-1,'Réponses au formulaire 1'!AG88)</f>
+        <v>5</v>
+      </c>
+      <c r="AG88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH88),-1,'Réponses au formulaire 1'!AH88)</f>
+        <v>4</v>
+      </c>
+      <c r="AH88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI88),-1,'Réponses au formulaire 1'!AI88)</f>
+        <v>5</v>
+      </c>
+      <c r="AI88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ88),-1,'Réponses au formulaire 1'!AJ88)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK88),-1,'Réponses au formulaire 1'!AK88)</f>
+        <v>4</v>
+      </c>
+      <c r="AK88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL88),-1,'Réponses au formulaire 1'!AL88)</f>
+        <v>5</v>
+      </c>
+      <c r="AL88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM88),-1,'Réponses au formulaire 1'!AM88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN88),-1,'Réponses au formulaire 1'!AN88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO88),-1,'Réponses au formulaire 1'!AO88)</f>
+        <v>5</v>
+      </c>
+      <c r="AO88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP88),-1,'Réponses au formulaire 1'!AP88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ88),-1,'Réponses au formulaire 1'!AQ88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR88),-1,'Réponses au formulaire 1'!AR88)</f>
+        <v>3</v>
+      </c>
+      <c r="AR88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS88),-1,'Réponses au formulaire 1'!AS88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT88),-1,'Réponses au formulaire 1'!AT88)</f>
+        <v>4</v>
+      </c>
+      <c r="AT88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU88),-1,'Réponses au formulaire 1'!AU88)</f>
+        <v>5</v>
+      </c>
+      <c r="AU88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV88),-1,'Réponses au formulaire 1'!AV88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW88),-1,'Réponses au formulaire 1'!AW88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX88),-1,'Réponses au formulaire 1'!AX88)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX88">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY88),-1,'Réponses au formulaire 1'!AY88)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" t="str">
+        <f>'Réponses au formulaire 1'!B89</f>
+        <v>Horst</v>
+      </c>
+      <c r="B89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C89),-1,'Réponses au formulaire 1'!C89)</f>
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D89),-1,'Réponses au formulaire 1'!D89)</f>
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E89),-1,'Réponses au formulaire 1'!E89)</f>
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F89),-1,'Réponses au formulaire 1'!F89)</f>
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G89),-1,'Réponses au formulaire 1'!G89)</f>
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H89),-1,'Réponses au formulaire 1'!H89)</f>
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I89),-1,'Réponses au formulaire 1'!I89)</f>
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J89),-1,'Réponses au formulaire 1'!J89)</f>
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K89),-1,'Réponses au formulaire 1'!K89)</f>
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L89),-1,'Réponses au formulaire 1'!L89)</f>
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M89),-1,'Réponses au formulaire 1'!M89)</f>
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N89),-1,'Réponses au formulaire 1'!N89)</f>
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O89),-1,'Réponses au formulaire 1'!O89)</f>
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P89),-1,'Réponses au formulaire 1'!P89)</f>
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q89),-1,'Réponses au formulaire 1'!Q89)</f>
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R89),-1,'Réponses au formulaire 1'!R89)</f>
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S89),-1,'Réponses au formulaire 1'!S89)</f>
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T89),-1,'Réponses au formulaire 1'!T89)</f>
+        <v>3</v>
+      </c>
+      <c r="T89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U89),-1,'Réponses au formulaire 1'!U89)</f>
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V89),-1,'Réponses au formulaire 1'!V89)</f>
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W89),-1,'Réponses au formulaire 1'!W89)</f>
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X89),-1,'Réponses au formulaire 1'!X89)</f>
+        <v>3</v>
+      </c>
+      <c r="X89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y89),-1,'Réponses au formulaire 1'!Y89)</f>
+        <v>3</v>
+      </c>
+      <c r="Y89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z89),-1,'Réponses au formulaire 1'!Z89)</f>
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA89),-1,'Réponses au formulaire 1'!AA89)</f>
+        <v>3</v>
+      </c>
+      <c r="AA89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB89),-1,'Réponses au formulaire 1'!AB89)</f>
+        <v>3</v>
+      </c>
+      <c r="AB89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC89),-1,'Réponses au formulaire 1'!AC89)</f>
+        <v>3</v>
+      </c>
+      <c r="AC89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD89),-1,'Réponses au formulaire 1'!AD89)</f>
+        <v>3</v>
+      </c>
+      <c r="AD89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE89),-1,'Réponses au formulaire 1'!AE89)</f>
+        <v>2</v>
+      </c>
+      <c r="AE89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF89),-1,'Réponses au formulaire 1'!AF89)</f>
+        <v>2</v>
+      </c>
+      <c r="AF89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG89),-1,'Réponses au formulaire 1'!AG89)</f>
+        <v>3</v>
+      </c>
+      <c r="AG89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH89),-1,'Réponses au formulaire 1'!AH89)</f>
+        <v>4</v>
+      </c>
+      <c r="AH89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI89),-1,'Réponses au formulaire 1'!AI89)</f>
+        <v>3</v>
+      </c>
+      <c r="AI89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ89),-1,'Réponses au formulaire 1'!AJ89)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK89),-1,'Réponses au formulaire 1'!AK89)</f>
+        <v>3</v>
+      </c>
+      <c r="AK89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL89),-1,'Réponses au formulaire 1'!AL89)</f>
+        <v>3</v>
+      </c>
+      <c r="AL89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM89),-1,'Réponses au formulaire 1'!AM89)</f>
+        <v>3</v>
+      </c>
+      <c r="AM89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN89),-1,'Réponses au formulaire 1'!AN89)</f>
+        <v>3</v>
+      </c>
+      <c r="AN89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO89),-1,'Réponses au formulaire 1'!AO89)</f>
+        <v>4</v>
+      </c>
+      <c r="AO89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP89),-1,'Réponses au formulaire 1'!AP89)</f>
+        <v>3</v>
+      </c>
+      <c r="AP89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ89),-1,'Réponses au formulaire 1'!AQ89)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR89),-1,'Réponses au formulaire 1'!AR89)</f>
+        <v>3</v>
+      </c>
+      <c r="AR89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS89),-1,'Réponses au formulaire 1'!AS89)</f>
+        <v>3</v>
+      </c>
+      <c r="AS89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT89),-1,'Réponses au formulaire 1'!AT89)</f>
+        <v>3</v>
+      </c>
+      <c r="AT89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU89),-1,'Réponses au formulaire 1'!AU89)</f>
+        <v>4</v>
+      </c>
+      <c r="AU89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV89),-1,'Réponses au formulaire 1'!AV89)</f>
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW89),-1,'Réponses au formulaire 1'!AW89)</f>
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX89),-1,'Réponses au formulaire 1'!AX89)</f>
+        <v>3</v>
+      </c>
+      <c r="AX89">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY89),-1,'Réponses au formulaire 1'!AY89)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" t="str">
+        <f>'Réponses au formulaire 1'!B90</f>
+        <v>Florent</v>
+      </c>
+      <c r="B90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C90),-1,'Réponses au formulaire 1'!C90)</f>
+        <v>-1</v>
+      </c>
+      <c r="C90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D90),-1,'Réponses au formulaire 1'!D90)</f>
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E90),-1,'Réponses au formulaire 1'!E90)</f>
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F90),-1,'Réponses au formulaire 1'!F90)</f>
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G90),-1,'Réponses au formulaire 1'!G90)</f>
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H90),-1,'Réponses au formulaire 1'!H90)</f>
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I90),-1,'Réponses au formulaire 1'!I90)</f>
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J90),-1,'Réponses au formulaire 1'!J90)</f>
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K90),-1,'Réponses au formulaire 1'!K90)</f>
+        <v>-1</v>
+      </c>
+      <c r="K90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L90),-1,'Réponses au formulaire 1'!L90)</f>
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M90),-1,'Réponses au formulaire 1'!M90)</f>
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N90),-1,'Réponses au formulaire 1'!N90)</f>
+        <v>-1</v>
+      </c>
+      <c r="N90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O90),-1,'Réponses au formulaire 1'!O90)</f>
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P90),-1,'Réponses au formulaire 1'!P90)</f>
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q90),-1,'Réponses au formulaire 1'!Q90)</f>
+        <v>4</v>
+      </c>
+      <c r="Q90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R90),-1,'Réponses au formulaire 1'!R90)</f>
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S90),-1,'Réponses au formulaire 1'!S90)</f>
+        <v>4</v>
+      </c>
+      <c r="S90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T90),-1,'Réponses au formulaire 1'!T90)</f>
+        <v>-1</v>
+      </c>
+      <c r="T90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U90),-1,'Réponses au formulaire 1'!U90)</f>
+        <v>4</v>
+      </c>
+      <c r="U90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V90),-1,'Réponses au formulaire 1'!V90)</f>
+        <v>3</v>
+      </c>
+      <c r="V90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W90),-1,'Réponses au formulaire 1'!W90)</f>
+        <v>4</v>
+      </c>
+      <c r="W90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X90),-1,'Réponses au formulaire 1'!X90)</f>
+        <v>4</v>
+      </c>
+      <c r="X90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y90),-1,'Réponses au formulaire 1'!Y90)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z90),-1,'Réponses au formulaire 1'!Z90)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA90),-1,'Réponses au formulaire 1'!AA90)</f>
+        <v>4</v>
+      </c>
+      <c r="AA90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB90),-1,'Réponses au formulaire 1'!AB90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC90),-1,'Réponses au formulaire 1'!AC90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD90),-1,'Réponses au formulaire 1'!AD90)</f>
+        <v>3</v>
+      </c>
+      <c r="AD90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE90),-1,'Réponses au formulaire 1'!AE90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF90),-1,'Réponses au formulaire 1'!AF90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG90),-1,'Réponses au formulaire 1'!AG90)</f>
+        <v>4</v>
+      </c>
+      <c r="AG90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH90),-1,'Réponses au formulaire 1'!AH90)</f>
+        <v>3</v>
+      </c>
+      <c r="AH90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI90),-1,'Réponses au formulaire 1'!AI90)</f>
+        <v>3</v>
+      </c>
+      <c r="AI90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ90),-1,'Réponses au formulaire 1'!AJ90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK90),-1,'Réponses au formulaire 1'!AK90)</f>
+        <v>3</v>
+      </c>
+      <c r="AK90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL90),-1,'Réponses au formulaire 1'!AL90)</f>
+        <v>3</v>
+      </c>
+      <c r="AL90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM90),-1,'Réponses au formulaire 1'!AM90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN90),-1,'Réponses au formulaire 1'!AN90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO90),-1,'Réponses au formulaire 1'!AO90)</f>
+        <v>4</v>
+      </c>
+      <c r="AO90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP90),-1,'Réponses au formulaire 1'!AP90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ90),-1,'Réponses au formulaire 1'!AQ90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR90),-1,'Réponses au formulaire 1'!AR90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS90),-1,'Réponses au formulaire 1'!AS90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT90),-1,'Réponses au formulaire 1'!AT90)</f>
+        <v>5</v>
+      </c>
+      <c r="AT90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU90),-1,'Réponses au formulaire 1'!AU90)</f>
+        <v>1</v>
+      </c>
+      <c r="AU90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV90),-1,'Réponses au formulaire 1'!AV90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW90),-1,'Réponses au formulaire 1'!AW90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX90),-1,'Réponses au formulaire 1'!AX90)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX90">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY90),-1,'Réponses au formulaire 1'!AY90)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" t="str">
+        <f>'Réponses au formulaire 1'!B91</f>
+        <v>Max</v>
+      </c>
+      <c r="B91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C91),-1,'Réponses au formulaire 1'!C91)</f>
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D91),-1,'Réponses au formulaire 1'!D91)</f>
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E91),-1,'Réponses au formulaire 1'!E91)</f>
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F91),-1,'Réponses au formulaire 1'!F91)</f>
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G91),-1,'Réponses au formulaire 1'!G91)</f>
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H91),-1,'Réponses au formulaire 1'!H91)</f>
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I91),-1,'Réponses au formulaire 1'!I91)</f>
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J91),-1,'Réponses au formulaire 1'!J91)</f>
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K91),-1,'Réponses au formulaire 1'!K91)</f>
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L91),-1,'Réponses au formulaire 1'!L91)</f>
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M91),-1,'Réponses au formulaire 1'!M91)</f>
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N91),-1,'Réponses au formulaire 1'!N91)</f>
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O91),-1,'Réponses au formulaire 1'!O91)</f>
+        <v>4</v>
+      </c>
+      <c r="O91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P91),-1,'Réponses au formulaire 1'!P91)</f>
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q91),-1,'Réponses au formulaire 1'!Q91)</f>
+        <v>4</v>
+      </c>
+      <c r="Q91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R91),-1,'Réponses au formulaire 1'!R91)</f>
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S91),-1,'Réponses au formulaire 1'!S91)</f>
+        <v>5</v>
+      </c>
+      <c r="S91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T91),-1,'Réponses au formulaire 1'!T91)</f>
+        <v>2</v>
+      </c>
+      <c r="T91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U91),-1,'Réponses au formulaire 1'!U91)</f>
+        <v>4</v>
+      </c>
+      <c r="U91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V91),-1,'Réponses au formulaire 1'!V91)</f>
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W91),-1,'Réponses au formulaire 1'!W91)</f>
+        <v>2</v>
+      </c>
+      <c r="W91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X91),-1,'Réponses au formulaire 1'!X91)</f>
+        <v>1</v>
+      </c>
+      <c r="X91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y91),-1,'Réponses au formulaire 1'!Y91)</f>
+        <v>2</v>
+      </c>
+      <c r="Y91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z91),-1,'Réponses au formulaire 1'!Z91)</f>
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA91),-1,'Réponses au formulaire 1'!AA91)</f>
+        <v>3</v>
+      </c>
+      <c r="AA91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB91),-1,'Réponses au formulaire 1'!AB91)</f>
+        <v>2</v>
+      </c>
+      <c r="AB91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC91),-1,'Réponses au formulaire 1'!AC91)</f>
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD91),-1,'Réponses au formulaire 1'!AD91)</f>
+        <v>3</v>
+      </c>
+      <c r="AD91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE91),-1,'Réponses au formulaire 1'!AE91)</f>
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF91),-1,'Réponses au formulaire 1'!AF91)</f>
+        <v>4</v>
+      </c>
+      <c r="AF91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG91),-1,'Réponses au formulaire 1'!AG91)</f>
+        <v>3</v>
+      </c>
+      <c r="AG91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH91),-1,'Réponses au formulaire 1'!AH91)</f>
+        <v>2</v>
+      </c>
+      <c r="AH91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI91),-1,'Réponses au formulaire 1'!AI91)</f>
+        <v>3</v>
+      </c>
+      <c r="AI91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ91),-1,'Réponses au formulaire 1'!AJ91)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK91),-1,'Réponses au formulaire 1'!AK91)</f>
+        <v>3</v>
+      </c>
+      <c r="AK91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL91),-1,'Réponses au formulaire 1'!AL91)</f>
+        <v>4</v>
+      </c>
+      <c r="AL91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM91),-1,'Réponses au formulaire 1'!AM91)</f>
+        <v>3</v>
+      </c>
+      <c r="AM91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN91),-1,'Réponses au formulaire 1'!AN91)</f>
+        <v>3</v>
+      </c>
+      <c r="AN91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO91),-1,'Réponses au formulaire 1'!AO91)</f>
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP91),-1,'Réponses au formulaire 1'!AP91)</f>
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ91),-1,'Réponses au formulaire 1'!AQ91)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR91),-1,'Réponses au formulaire 1'!AR91)</f>
+        <v>4</v>
+      </c>
+      <c r="AR91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS91),-1,'Réponses au formulaire 1'!AS91)</f>
+        <v>2</v>
+      </c>
+      <c r="AS91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT91),-1,'Réponses au formulaire 1'!AT91)</f>
+        <v>2</v>
+      </c>
+      <c r="AT91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU91),-1,'Réponses au formulaire 1'!AU91)</f>
+        <v>2</v>
+      </c>
+      <c r="AU91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV91),-1,'Réponses au formulaire 1'!AV91)</f>
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW91),-1,'Réponses au formulaire 1'!AW91)</f>
+        <v>0</v>
+      </c>
+      <c r="AW91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX91),-1,'Réponses au formulaire 1'!AX91)</f>
+        <v>1</v>
+      </c>
+      <c r="AX91">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY91),-1,'Réponses au formulaire 1'!AY91)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" t="str">
+        <f>'Réponses au formulaire 1'!B92</f>
+        <v>Helene</v>
+      </c>
+      <c r="B92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C92),-1,'Réponses au formulaire 1'!C92)</f>
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D92),-1,'Réponses au formulaire 1'!D92)</f>
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E92),-1,'Réponses au formulaire 1'!E92)</f>
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F92),-1,'Réponses au formulaire 1'!F92)</f>
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G92),-1,'Réponses au formulaire 1'!G92)</f>
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H92),-1,'Réponses au formulaire 1'!H92)</f>
+        <v>-1</v>
+      </c>
+      <c r="H92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I92),-1,'Réponses au formulaire 1'!I92)</f>
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J92),-1,'Réponses au formulaire 1'!J92)</f>
+        <v>-1</v>
+      </c>
+      <c r="J92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K92),-1,'Réponses au formulaire 1'!K92)</f>
+        <v>-1</v>
+      </c>
+      <c r="K92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L92),-1,'Réponses au formulaire 1'!L92)</f>
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M92),-1,'Réponses au formulaire 1'!M92)</f>
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N92),-1,'Réponses au formulaire 1'!N92)</f>
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O92),-1,'Réponses au formulaire 1'!O92)</f>
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P92),-1,'Réponses au formulaire 1'!P92)</f>
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q92),-1,'Réponses au formulaire 1'!Q92)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R92),-1,'Réponses au formulaire 1'!R92)</f>
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S92),-1,'Réponses au formulaire 1'!S92)</f>
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T92),-1,'Réponses au formulaire 1'!T92)</f>
+        <v>-1</v>
+      </c>
+      <c r="T92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U92),-1,'Réponses au formulaire 1'!U92)</f>
+        <v>5</v>
+      </c>
+      <c r="U92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V92),-1,'Réponses au formulaire 1'!V92)</f>
+        <v>5</v>
+      </c>
+      <c r="V92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W92),-1,'Réponses au formulaire 1'!W92)</f>
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X92),-1,'Réponses au formulaire 1'!X92)</f>
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y92),-1,'Réponses au formulaire 1'!Y92)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z92),-1,'Réponses au formulaire 1'!Z92)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA92),-1,'Réponses au formulaire 1'!AA92)</f>
+        <v>3</v>
+      </c>
+      <c r="AA92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB92),-1,'Réponses au formulaire 1'!AB92)</f>
+        <v>4</v>
+      </c>
+      <c r="AB92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC92),-1,'Réponses au formulaire 1'!AC92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD92),-1,'Réponses au formulaire 1'!AD92)</f>
+        <v>3</v>
+      </c>
+      <c r="AD92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE92),-1,'Réponses au formulaire 1'!AE92)</f>
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF92),-1,'Réponses au formulaire 1'!AF92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG92),-1,'Réponses au formulaire 1'!AG92)</f>
+        <v>4</v>
+      </c>
+      <c r="AG92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH92),-1,'Réponses au formulaire 1'!AH92)</f>
+        <v>5</v>
+      </c>
+      <c r="AH92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI92),-1,'Réponses au formulaire 1'!AI92)</f>
+        <v>4</v>
+      </c>
+      <c r="AI92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ92),-1,'Réponses au formulaire 1'!AJ92)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK92),-1,'Réponses au formulaire 1'!AK92)</f>
+        <v>3</v>
+      </c>
+      <c r="AK92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL92),-1,'Réponses au formulaire 1'!AL92)</f>
+        <v>4</v>
+      </c>
+      <c r="AL92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM92),-1,'Réponses au formulaire 1'!AM92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN92),-1,'Réponses au formulaire 1'!AN92)</f>
+        <v>3</v>
+      </c>
+      <c r="AN92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO92),-1,'Réponses au formulaire 1'!AO92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AO92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP92),-1,'Réponses au formulaire 1'!AP92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ92),-1,'Réponses au formulaire 1'!AQ92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR92),-1,'Réponses au formulaire 1'!AR92)</f>
+        <v>4</v>
+      </c>
+      <c r="AR92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS92),-1,'Réponses au formulaire 1'!AS92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT92),-1,'Réponses au formulaire 1'!AT92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU92),-1,'Réponses au formulaire 1'!AU92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV92),-1,'Réponses au formulaire 1'!AV92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW92),-1,'Réponses au formulaire 1'!AW92)</f>
+        <v>1</v>
+      </c>
+      <c r="AW92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX92),-1,'Réponses au formulaire 1'!AX92)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX92">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY92),-1,'Réponses au formulaire 1'!AY92)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" t="str">
+        <f>'Réponses au formulaire 1'!B93</f>
+        <v>Rantala</v>
+      </c>
+      <c r="B93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C93),-1,'Réponses au formulaire 1'!C93)</f>
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D93),-1,'Réponses au formulaire 1'!D93)</f>
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E93),-1,'Réponses au formulaire 1'!E93)</f>
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F93),-1,'Réponses au formulaire 1'!F93)</f>
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G93),-1,'Réponses au formulaire 1'!G93)</f>
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H93),-1,'Réponses au formulaire 1'!H93)</f>
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I93),-1,'Réponses au formulaire 1'!I93)</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J93),-1,'Réponses au formulaire 1'!J93)</f>
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K93),-1,'Réponses au formulaire 1'!K93)</f>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L93),-1,'Réponses au formulaire 1'!L93)</f>
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M93),-1,'Réponses au formulaire 1'!M93)</f>
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N93),-1,'Réponses au formulaire 1'!N93)</f>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O93),-1,'Réponses au formulaire 1'!O93)</f>
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P93),-1,'Réponses au formulaire 1'!P93)</f>
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q93),-1,'Réponses au formulaire 1'!Q93)</f>
+        <v>4</v>
+      </c>
+      <c r="Q93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R93),-1,'Réponses au formulaire 1'!R93)</f>
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S93),-1,'Réponses au formulaire 1'!S93)</f>
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T93),-1,'Réponses au formulaire 1'!T93)</f>
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U93),-1,'Réponses au formulaire 1'!U93)</f>
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V93),-1,'Réponses au formulaire 1'!V93)</f>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W93),-1,'Réponses au formulaire 1'!W93)</f>
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X93),-1,'Réponses au formulaire 1'!X93)</f>
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y93),-1,'Réponses au formulaire 1'!Y93)</f>
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z93),-1,'Réponses au formulaire 1'!Z93)</f>
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA93),-1,'Réponses au formulaire 1'!AA93)</f>
+        <v>2</v>
+      </c>
+      <c r="AA93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB93),-1,'Réponses au formulaire 1'!AB93)</f>
+        <v>4</v>
+      </c>
+      <c r="AB93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC93),-1,'Réponses au formulaire 1'!AC93)</f>
+        <v>2</v>
+      </c>
+      <c r="AC93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD93),-1,'Réponses au formulaire 1'!AD93)</f>
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE93),-1,'Réponses au formulaire 1'!AE93)</f>
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF93),-1,'Réponses au formulaire 1'!AF93)</f>
+        <v>1</v>
+      </c>
+      <c r="AF93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG93),-1,'Réponses au formulaire 1'!AG93)</f>
+        <v>2</v>
+      </c>
+      <c r="AG93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH93),-1,'Réponses au formulaire 1'!AH93)</f>
+        <v>4</v>
+      </c>
+      <c r="AH93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI93),-1,'Réponses au formulaire 1'!AI93)</f>
+        <v>3</v>
+      </c>
+      <c r="AI93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ93),-1,'Réponses au formulaire 1'!AJ93)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK93),-1,'Réponses au formulaire 1'!AK93)</f>
+        <v>3</v>
+      </c>
+      <c r="AK93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL93),-1,'Réponses au formulaire 1'!AL93)</f>
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM93),-1,'Réponses au formulaire 1'!AM93)</f>
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN93),-1,'Réponses au formulaire 1'!AN93)</f>
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO93),-1,'Réponses au formulaire 1'!AO93)</f>
+        <v>5</v>
+      </c>
+      <c r="AO93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP93),-1,'Réponses au formulaire 1'!AP93)</f>
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ93),-1,'Réponses au formulaire 1'!AQ93)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR93),-1,'Réponses au formulaire 1'!AR93)</f>
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS93),-1,'Réponses au formulaire 1'!AS93)</f>
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT93),-1,'Réponses au formulaire 1'!AT93)</f>
+        <v>3</v>
+      </c>
+      <c r="AT93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU93),-1,'Réponses au formulaire 1'!AU93)</f>
+        <v>5</v>
+      </c>
+      <c r="AU93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV93),-1,'Réponses au formulaire 1'!AV93)</f>
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW93),-1,'Réponses au formulaire 1'!AW93)</f>
+        <v>1</v>
+      </c>
+      <c r="AW93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX93),-1,'Réponses au formulaire 1'!AX93)</f>
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY93),-1,'Réponses au formulaire 1'!AY93)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" t="str">
+        <f>'Réponses au formulaire 1'!B94</f>
+        <v>Miriam</v>
+      </c>
+      <c r="B94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C94),-1,'Réponses au formulaire 1'!C94)</f>
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D94),-1,'Réponses au formulaire 1'!D94)</f>
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E94),-1,'Réponses au formulaire 1'!E94)</f>
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F94),-1,'Réponses au formulaire 1'!F94)</f>
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G94),-1,'Réponses au formulaire 1'!G94)</f>
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H94),-1,'Réponses au formulaire 1'!H94)</f>
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I94),-1,'Réponses au formulaire 1'!I94)</f>
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J94),-1,'Réponses au formulaire 1'!J94)</f>
+        <v>-1</v>
+      </c>
+      <c r="J94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K94),-1,'Réponses au formulaire 1'!K94)</f>
+        <v>-1</v>
+      </c>
+      <c r="K94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L94),-1,'Réponses au formulaire 1'!L94)</f>
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M94),-1,'Réponses au formulaire 1'!M94)</f>
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N94),-1,'Réponses au formulaire 1'!N94)</f>
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O94),-1,'Réponses au formulaire 1'!O94)</f>
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P94),-1,'Réponses au formulaire 1'!P94)</f>
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q94),-1,'Réponses au formulaire 1'!Q94)</f>
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R94),-1,'Réponses au formulaire 1'!R94)</f>
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S94),-1,'Réponses au formulaire 1'!S94)</f>
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T94),-1,'Réponses au formulaire 1'!T94)</f>
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U94),-1,'Réponses au formulaire 1'!U94)</f>
+        <v>-1</v>
+      </c>
+      <c r="U94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V94),-1,'Réponses au formulaire 1'!V94)</f>
+        <v>-1</v>
+      </c>
+      <c r="V94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W94),-1,'Réponses au formulaire 1'!W94)</f>
+        <v>-1</v>
+      </c>
+      <c r="W94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X94),-1,'Réponses au formulaire 1'!X94)</f>
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y94),-1,'Réponses au formulaire 1'!Y94)</f>
+        <v>3</v>
+      </c>
+      <c r="Y94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z94),-1,'Réponses au formulaire 1'!Z94)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA94),-1,'Réponses au formulaire 1'!AA94)</f>
+        <v>4</v>
+      </c>
+      <c r="AA94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB94),-1,'Réponses au formulaire 1'!AB94)</f>
+        <v>5</v>
+      </c>
+      <c r="AB94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC94),-1,'Réponses au formulaire 1'!AC94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD94),-1,'Réponses au formulaire 1'!AD94)</f>
+        <v>4</v>
+      </c>
+      <c r="AD94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE94),-1,'Réponses au formulaire 1'!AE94)</f>
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF94),-1,'Réponses au formulaire 1'!AF94)</f>
+        <v>3</v>
+      </c>
+      <c r="AF94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG94),-1,'Réponses au formulaire 1'!AG94)</f>
+        <v>2</v>
+      </c>
+      <c r="AG94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH94),-1,'Réponses au formulaire 1'!AH94)</f>
+        <v>4</v>
+      </c>
+      <c r="AH94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI94),-1,'Réponses au formulaire 1'!AI94)</f>
+        <v>3</v>
+      </c>
+      <c r="AI94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ94),-1,'Réponses au formulaire 1'!AJ94)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK94),-1,'Réponses au formulaire 1'!AK94)</f>
+        <v>3</v>
+      </c>
+      <c r="AK94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL94),-1,'Réponses au formulaire 1'!AL94)</f>
+        <v>2</v>
+      </c>
+      <c r="AL94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM94),-1,'Réponses au formulaire 1'!AM94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN94),-1,'Réponses au formulaire 1'!AN94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO94),-1,'Réponses au formulaire 1'!AO94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AO94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP94),-1,'Réponses au formulaire 1'!AP94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ94),-1,'Réponses au formulaire 1'!AQ94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR94),-1,'Réponses au formulaire 1'!AR94)</f>
+        <v>3</v>
+      </c>
+      <c r="AR94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS94),-1,'Réponses au formulaire 1'!AS94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT94),-1,'Réponses au formulaire 1'!AT94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU94),-1,'Réponses au formulaire 1'!AU94)</f>
+        <v>5</v>
+      </c>
+      <c r="AU94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV94),-1,'Réponses au formulaire 1'!AV94)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW94),-1,'Réponses au formulaire 1'!AW94)</f>
+        <v>1</v>
+      </c>
+      <c r="AW94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX94),-1,'Réponses au formulaire 1'!AX94)</f>
+        <v>3</v>
+      </c>
+      <c r="AX94">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY94),-1,'Réponses au formulaire 1'!AY94)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" t="str">
+        <f>'Réponses au formulaire 1'!B95</f>
+        <v>Pipou</v>
+      </c>
+      <c r="B95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C95),-1,'Réponses au formulaire 1'!C95)</f>
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D95),-1,'Réponses au formulaire 1'!D95)</f>
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E95),-1,'Réponses au formulaire 1'!E95)</f>
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F95),-1,'Réponses au formulaire 1'!F95)</f>
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G95),-1,'Réponses au formulaire 1'!G95)</f>
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H95),-1,'Réponses au formulaire 1'!H95)</f>
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I95),-1,'Réponses au formulaire 1'!I95)</f>
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J95),-1,'Réponses au formulaire 1'!J95)</f>
+        <v>-1</v>
+      </c>
+      <c r="J95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K95),-1,'Réponses au formulaire 1'!K95)</f>
+        <v>-1</v>
+      </c>
+      <c r="K95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L95),-1,'Réponses au formulaire 1'!L95)</f>
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M95),-1,'Réponses au formulaire 1'!M95)</f>
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N95),-1,'Réponses au formulaire 1'!N95)</f>
+        <v>-1</v>
+      </c>
+      <c r="N95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O95),-1,'Réponses au formulaire 1'!O95)</f>
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P95),-1,'Réponses au formulaire 1'!P95)</f>
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q95),-1,'Réponses au formulaire 1'!Q95)</f>
+        <v>5</v>
+      </c>
+      <c r="Q95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R95),-1,'Réponses au formulaire 1'!R95)</f>
+        <v>-1</v>
+      </c>
+      <c r="R95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S95),-1,'Réponses au formulaire 1'!S95)</f>
+        <v>-1</v>
+      </c>
+      <c r="S95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T95),-1,'Réponses au formulaire 1'!T95)</f>
+        <v>-1</v>
+      </c>
+      <c r="T95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U95),-1,'Réponses au formulaire 1'!U95)</f>
+        <v>2</v>
+      </c>
+      <c r="U95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V95),-1,'Réponses au formulaire 1'!V95)</f>
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W95),-1,'Réponses au formulaire 1'!W95)</f>
+        <v>4</v>
+      </c>
+      <c r="W95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X95),-1,'Réponses au formulaire 1'!X95)</f>
+        <v>2</v>
+      </c>
+      <c r="X95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y95),-1,'Réponses au formulaire 1'!Y95)</f>
+        <v>4</v>
+      </c>
+      <c r="Y95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z95),-1,'Réponses au formulaire 1'!Z95)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA95),-1,'Réponses au formulaire 1'!AA95)</f>
+        <v>2</v>
+      </c>
+      <c r="AA95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB95),-1,'Réponses au formulaire 1'!AB95)</f>
+        <v>5</v>
+      </c>
+      <c r="AB95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC95),-1,'Réponses au formulaire 1'!AC95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD95),-1,'Réponses au formulaire 1'!AD95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE95),-1,'Réponses au formulaire 1'!AE95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF95),-1,'Réponses au formulaire 1'!AF95)</f>
+        <v>4</v>
+      </c>
+      <c r="AF95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG95),-1,'Réponses au formulaire 1'!AG95)</f>
+        <v>3</v>
+      </c>
+      <c r="AG95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH95),-1,'Réponses au formulaire 1'!AH95)</f>
+        <v>4</v>
+      </c>
+      <c r="AH95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI95),-1,'Réponses au formulaire 1'!AI95)</f>
+        <v>5</v>
+      </c>
+      <c r="AI95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ95),-1,'Réponses au formulaire 1'!AJ95)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK95),-1,'Réponses au formulaire 1'!AK95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL95),-1,'Réponses au formulaire 1'!AL95)</f>
+        <v>4</v>
+      </c>
+      <c r="AL95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM95),-1,'Réponses au formulaire 1'!AM95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN95),-1,'Réponses au formulaire 1'!AN95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO95),-1,'Réponses au formulaire 1'!AO95)</f>
+        <v>5</v>
+      </c>
+      <c r="AO95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP95),-1,'Réponses au formulaire 1'!AP95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ95),-1,'Réponses au formulaire 1'!AQ95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR95),-1,'Réponses au formulaire 1'!AR95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS95),-1,'Réponses au formulaire 1'!AS95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT95),-1,'Réponses au formulaire 1'!AT95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU95),-1,'Réponses au formulaire 1'!AU95)</f>
+        <v>4</v>
+      </c>
+      <c r="AU95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV95),-1,'Réponses au formulaire 1'!AV95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW95),-1,'Réponses au formulaire 1'!AW95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX95),-1,'Réponses au formulaire 1'!AX95)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX95">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY95),-1,'Réponses au formulaire 1'!AY95)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" t="str">
+        <f>'Réponses au formulaire 1'!B96</f>
+        <v>Paulo</v>
+      </c>
+      <c r="B96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C96),-1,'Réponses au formulaire 1'!C96)</f>
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D96),-1,'Réponses au formulaire 1'!D96)</f>
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E96),-1,'Réponses au formulaire 1'!E96)</f>
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F96),-1,'Réponses au formulaire 1'!F96)</f>
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G96),-1,'Réponses au formulaire 1'!G96)</f>
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H96),-1,'Réponses au formulaire 1'!H96)</f>
+        <v>-1</v>
+      </c>
+      <c r="H96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I96),-1,'Réponses au formulaire 1'!I96)</f>
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J96),-1,'Réponses au formulaire 1'!J96)</f>
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K96),-1,'Réponses au formulaire 1'!K96)</f>
+        <v>-1</v>
+      </c>
+      <c r="K96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L96),-1,'Réponses au formulaire 1'!L96)</f>
+        <v>5</v>
+      </c>
+      <c r="L96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M96),-1,'Réponses au formulaire 1'!M96)</f>
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N96),-1,'Réponses au formulaire 1'!N96)</f>
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O96),-1,'Réponses au formulaire 1'!O96)</f>
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P96),-1,'Réponses au formulaire 1'!P96)</f>
+        <v>4</v>
+      </c>
+      <c r="P96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q96),-1,'Réponses au formulaire 1'!Q96)</f>
+        <v>4</v>
+      </c>
+      <c r="Q96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R96),-1,'Réponses au formulaire 1'!R96)</f>
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S96),-1,'Réponses au formulaire 1'!S96)</f>
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T96),-1,'Réponses au formulaire 1'!T96)</f>
+        <v>5</v>
+      </c>
+      <c r="T96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U96),-1,'Réponses au formulaire 1'!U96)</f>
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V96),-1,'Réponses au formulaire 1'!V96)</f>
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W96),-1,'Réponses au formulaire 1'!W96)</f>
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X96),-1,'Réponses au formulaire 1'!X96)</f>
+        <v>2</v>
+      </c>
+      <c r="X96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y96),-1,'Réponses au formulaire 1'!Y96)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z96),-1,'Réponses au formulaire 1'!Z96)</f>
+        <v>4</v>
+      </c>
+      <c r="Z96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA96),-1,'Réponses au formulaire 1'!AA96)</f>
+        <v>3</v>
+      </c>
+      <c r="AA96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB96),-1,'Réponses au formulaire 1'!AB96)</f>
+        <v>5</v>
+      </c>
+      <c r="AB96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC96),-1,'Réponses au formulaire 1'!AC96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD96),-1,'Réponses au formulaire 1'!AD96)</f>
+        <v>2</v>
+      </c>
+      <c r="AD96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE96),-1,'Réponses au formulaire 1'!AE96)</f>
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF96),-1,'Réponses au formulaire 1'!AF96)</f>
+        <v>2</v>
+      </c>
+      <c r="AF96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG96),-1,'Réponses au formulaire 1'!AG96)</f>
+        <v>3</v>
+      </c>
+      <c r="AG96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH96),-1,'Réponses au formulaire 1'!AH96)</f>
+        <v>4</v>
+      </c>
+      <c r="AH96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI96),-1,'Réponses au formulaire 1'!AI96)</f>
+        <v>2</v>
+      </c>
+      <c r="AI96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ96),-1,'Réponses au formulaire 1'!AJ96)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK96),-1,'Réponses au formulaire 1'!AK96)</f>
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL96),-1,'Réponses au formulaire 1'!AL96)</f>
+        <v>3</v>
+      </c>
+      <c r="AL96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM96),-1,'Réponses au formulaire 1'!AM96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN96),-1,'Réponses au formulaire 1'!AN96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO96),-1,'Réponses au formulaire 1'!AO96)</f>
+        <v>5</v>
+      </c>
+      <c r="AO96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP96),-1,'Réponses au formulaire 1'!AP96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ96),-1,'Réponses au formulaire 1'!AQ96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR96),-1,'Réponses au formulaire 1'!AR96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS96),-1,'Réponses au formulaire 1'!AS96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT96),-1,'Réponses au formulaire 1'!AT96)</f>
+        <v>3</v>
+      </c>
+      <c r="AT96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU96),-1,'Réponses au formulaire 1'!AU96)</f>
+        <v>5</v>
+      </c>
+      <c r="AU96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV96),-1,'Réponses au formulaire 1'!AV96)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW96),-1,'Réponses au formulaire 1'!AW96)</f>
+        <v>1</v>
+      </c>
+      <c r="AW96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX96),-1,'Réponses au formulaire 1'!AX96)</f>
+        <v>2</v>
+      </c>
+      <c r="AX96">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY96),-1,'Réponses au formulaire 1'!AY96)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" t="str">
+        <f>'Réponses au formulaire 1'!B97</f>
+        <v>LA</v>
+      </c>
+      <c r="B97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C97),-1,'Réponses au formulaire 1'!C97)</f>
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D97),-1,'Réponses au formulaire 1'!D97)</f>
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E97),-1,'Réponses au formulaire 1'!E97)</f>
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F97),-1,'Réponses au formulaire 1'!F97)</f>
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G97),-1,'Réponses au formulaire 1'!G97)</f>
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H97),-1,'Réponses au formulaire 1'!H97)</f>
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I97),-1,'Réponses au formulaire 1'!I97)</f>
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J97),-1,'Réponses au formulaire 1'!J97)</f>
+        <v>-1</v>
+      </c>
+      <c r="J97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K97),-1,'Réponses au formulaire 1'!K97)</f>
+        <v>-1</v>
+      </c>
+      <c r="K97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L97),-1,'Réponses au formulaire 1'!L97)</f>
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M97),-1,'Réponses au formulaire 1'!M97)</f>
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N97),-1,'Réponses au formulaire 1'!N97)</f>
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O97),-1,'Réponses au formulaire 1'!O97)</f>
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P97),-1,'Réponses au formulaire 1'!P97)</f>
+        <v>3</v>
+      </c>
+      <c r="P97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q97),-1,'Réponses au formulaire 1'!Q97)</f>
+        <v>5</v>
+      </c>
+      <c r="Q97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R97),-1,'Réponses au formulaire 1'!R97)</f>
+        <v>5</v>
+      </c>
+      <c r="R97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S97),-1,'Réponses au formulaire 1'!S97)</f>
+        <v>4</v>
+      </c>
+      <c r="S97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T97),-1,'Réponses au formulaire 1'!T97)</f>
+        <v>-1</v>
+      </c>
+      <c r="T97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U97),-1,'Réponses au formulaire 1'!U97)</f>
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V97),-1,'Réponses au formulaire 1'!V97)</f>
+        <v>-1</v>
+      </c>
+      <c r="V97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W97),-1,'Réponses au formulaire 1'!W97)</f>
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X97),-1,'Réponses au formulaire 1'!X97)</f>
+        <v>3</v>
+      </c>
+      <c r="X97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y97),-1,'Réponses au formulaire 1'!Y97)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z97),-1,'Réponses au formulaire 1'!Z97)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA97),-1,'Réponses au formulaire 1'!AA97)</f>
+        <v>5</v>
+      </c>
+      <c r="AA97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB97),-1,'Réponses au formulaire 1'!AB97)</f>
+        <v>5</v>
+      </c>
+      <c r="AB97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC97),-1,'Réponses au formulaire 1'!AC97)</f>
+        <v>3</v>
+      </c>
+      <c r="AC97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD97),-1,'Réponses au formulaire 1'!AD97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE97),-1,'Réponses au formulaire 1'!AE97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF97),-1,'Réponses au formulaire 1'!AF97)</f>
+        <v>4</v>
+      </c>
+      <c r="AF97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG97),-1,'Réponses au formulaire 1'!AG97)</f>
+        <v>5</v>
+      </c>
+      <c r="AG97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH97),-1,'Réponses au formulaire 1'!AH97)</f>
+        <v>1</v>
+      </c>
+      <c r="AH97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI97),-1,'Réponses au formulaire 1'!AI97)</f>
+        <v>4</v>
+      </c>
+      <c r="AI97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ97),-1,'Réponses au formulaire 1'!AJ97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK97),-1,'Réponses au formulaire 1'!AK97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL97),-1,'Réponses au formulaire 1'!AL97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM97),-1,'Réponses au formulaire 1'!AM97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN97),-1,'Réponses au formulaire 1'!AN97)</f>
+        <v>3</v>
+      </c>
+      <c r="AN97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO97),-1,'Réponses au formulaire 1'!AO97)</f>
+        <v>5</v>
+      </c>
+      <c r="AO97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP97),-1,'Réponses au formulaire 1'!AP97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ97),-1,'Réponses au formulaire 1'!AQ97)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR97),-1,'Réponses au formulaire 1'!AR97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS97),-1,'Réponses au formulaire 1'!AS97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT97),-1,'Réponses au formulaire 1'!AT97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU97),-1,'Réponses au formulaire 1'!AU97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV97),-1,'Réponses au formulaire 1'!AV97)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW97),-1,'Réponses au formulaire 1'!AW97)</f>
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX97),-1,'Réponses au formulaire 1'!AX97)</f>
+        <v>2</v>
+      </c>
+      <c r="AX97">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY97),-1,'Réponses au formulaire 1'!AY97)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" t="str">
+        <f>'Réponses au formulaire 1'!B98</f>
+        <v>Natasha</v>
+      </c>
+      <c r="B98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C98),-1,'Réponses au formulaire 1'!C98)</f>
+        <v>-1</v>
+      </c>
+      <c r="C98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D98),-1,'Réponses au formulaire 1'!D98)</f>
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E98),-1,'Réponses au formulaire 1'!E98)</f>
+        <v>-1</v>
+      </c>
+      <c r="E98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F98),-1,'Réponses au formulaire 1'!F98)</f>
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G98),-1,'Réponses au formulaire 1'!G98)</f>
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H98),-1,'Réponses au formulaire 1'!H98)</f>
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I98),-1,'Réponses au formulaire 1'!I98)</f>
+        <v>-1</v>
+      </c>
+      <c r="I98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J98),-1,'Réponses au formulaire 1'!J98)</f>
+        <v>-1</v>
+      </c>
+      <c r="J98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K98),-1,'Réponses au formulaire 1'!K98)</f>
+        <v>-1</v>
+      </c>
+      <c r="K98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L98),-1,'Réponses au formulaire 1'!L98)</f>
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M98),-1,'Réponses au formulaire 1'!M98)</f>
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N98),-1,'Réponses au formulaire 1'!N98)</f>
+        <v>-1</v>
+      </c>
+      <c r="N98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O98),-1,'Réponses au formulaire 1'!O98)</f>
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P98),-1,'Réponses au formulaire 1'!P98)</f>
+        <v>-1</v>
+      </c>
+      <c r="P98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q98),-1,'Réponses au formulaire 1'!Q98)</f>
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R98),-1,'Réponses au formulaire 1'!R98)</f>
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S98),-1,'Réponses au formulaire 1'!S98)</f>
+        <v>4</v>
+      </c>
+      <c r="S98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T98),-1,'Réponses au formulaire 1'!T98)</f>
+        <v>-1</v>
+      </c>
+      <c r="T98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U98),-1,'Réponses au formulaire 1'!U98)</f>
+        <v>-1</v>
+      </c>
+      <c r="U98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V98),-1,'Réponses au formulaire 1'!V98)</f>
+        <v>-1</v>
+      </c>
+      <c r="V98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W98),-1,'Réponses au formulaire 1'!W98)</f>
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X98),-1,'Réponses au formulaire 1'!X98)</f>
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y98),-1,'Réponses au formulaire 1'!Y98)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z98),-1,'Réponses au formulaire 1'!Z98)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA98),-1,'Réponses au formulaire 1'!AA98)</f>
+        <v>5</v>
+      </c>
+      <c r="AA98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB98),-1,'Réponses au formulaire 1'!AB98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC98),-1,'Réponses au formulaire 1'!AC98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD98),-1,'Réponses au formulaire 1'!AD98)</f>
+        <v>3</v>
+      </c>
+      <c r="AD98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE98),-1,'Réponses au formulaire 1'!AE98)</f>
+        <v>2</v>
+      </c>
+      <c r="AE98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF98),-1,'Réponses au formulaire 1'!AF98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG98),-1,'Réponses au formulaire 1'!AG98)</f>
+        <v>5</v>
+      </c>
+      <c r="AG98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH98),-1,'Réponses au formulaire 1'!AH98)</f>
+        <v>4</v>
+      </c>
+      <c r="AH98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI98),-1,'Réponses au formulaire 1'!AI98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ98),-1,'Réponses au formulaire 1'!AJ98)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK98),-1,'Réponses au formulaire 1'!AK98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL98),-1,'Réponses au formulaire 1'!AL98)</f>
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM98),-1,'Réponses au formulaire 1'!AM98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN98),-1,'Réponses au formulaire 1'!AN98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO98),-1,'Réponses au formulaire 1'!AO98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AO98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP98),-1,'Réponses au formulaire 1'!AP98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ98),-1,'Réponses au formulaire 1'!AQ98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR98),-1,'Réponses au formulaire 1'!AR98)</f>
+        <v>2</v>
+      </c>
+      <c r="AR98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS98),-1,'Réponses au formulaire 1'!AS98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT98),-1,'Réponses au formulaire 1'!AT98)</f>
+        <v>3</v>
+      </c>
+      <c r="AT98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU98),-1,'Réponses au formulaire 1'!AU98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV98),-1,'Réponses au formulaire 1'!AV98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW98),-1,'Réponses au formulaire 1'!AW98)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX98),-1,'Réponses au formulaire 1'!AX98)</f>
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY98),-1,'Réponses au formulaire 1'!AY98)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" t="str">
+        <f>'Réponses au formulaire 1'!B99</f>
+        <v>Cloclo</v>
+      </c>
+      <c r="B99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C99),-1,'Réponses au formulaire 1'!C99)</f>
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D99),-1,'Réponses au formulaire 1'!D99)</f>
+        <v>-1</v>
+      </c>
+      <c r="D99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E99),-1,'Réponses au formulaire 1'!E99)</f>
+        <v>-1</v>
+      </c>
+      <c r="E99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F99),-1,'Réponses au formulaire 1'!F99)</f>
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G99),-1,'Réponses au formulaire 1'!G99)</f>
+        <v>-1</v>
+      </c>
+      <c r="G99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H99),-1,'Réponses au formulaire 1'!H99)</f>
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I99),-1,'Réponses au formulaire 1'!I99)</f>
+        <v>-1</v>
+      </c>
+      <c r="I99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J99),-1,'Réponses au formulaire 1'!J99)</f>
+        <v>-1</v>
+      </c>
+      <c r="J99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K99),-1,'Réponses au formulaire 1'!K99)</f>
+        <v>-1</v>
+      </c>
+      <c r="K99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L99),-1,'Réponses au formulaire 1'!L99)</f>
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M99),-1,'Réponses au formulaire 1'!M99)</f>
+        <v>-1</v>
+      </c>
+      <c r="M99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N99),-1,'Réponses au formulaire 1'!N99)</f>
+        <v>-1</v>
+      </c>
+      <c r="N99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O99),-1,'Réponses au formulaire 1'!O99)</f>
+        <v>-1</v>
+      </c>
+      <c r="O99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P99),-1,'Réponses au formulaire 1'!P99)</f>
+        <v>-1</v>
+      </c>
+      <c r="P99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q99),-1,'Réponses au formulaire 1'!Q99)</f>
+        <v>4</v>
+      </c>
+      <c r="Q99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R99),-1,'Réponses au formulaire 1'!R99)</f>
+        <v>-1</v>
+      </c>
+      <c r="R99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S99),-1,'Réponses au formulaire 1'!S99)</f>
+        <v>-1</v>
+      </c>
+      <c r="S99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T99),-1,'Réponses au formulaire 1'!T99)</f>
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U99),-1,'Réponses au formulaire 1'!U99)</f>
+        <v>-1</v>
+      </c>
+      <c r="U99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V99),-1,'Réponses au formulaire 1'!V99)</f>
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W99),-1,'Réponses au formulaire 1'!W99)</f>
+        <v>5</v>
+      </c>
+      <c r="W99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X99),-1,'Réponses au formulaire 1'!X99)</f>
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y99),-1,'Réponses au formulaire 1'!Y99)</f>
+        <v>1</v>
+      </c>
+      <c r="Y99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z99),-1,'Réponses au formulaire 1'!Z99)</f>
+        <v>3</v>
+      </c>
+      <c r="Z99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA99),-1,'Réponses au formulaire 1'!AA99)</f>
+        <v>5</v>
+      </c>
+      <c r="AA99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB99),-1,'Réponses au formulaire 1'!AB99)</f>
+        <v>5</v>
+      </c>
+      <c r="AB99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC99),-1,'Réponses au formulaire 1'!AC99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD99),-1,'Réponses au formulaire 1'!AD99)</f>
+        <v>4</v>
+      </c>
+      <c r="AD99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE99),-1,'Réponses au formulaire 1'!AE99)</f>
+        <v>3</v>
+      </c>
+      <c r="AE99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF99),-1,'Réponses au formulaire 1'!AF99)</f>
+        <v>4</v>
+      </c>
+      <c r="AF99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG99),-1,'Réponses au formulaire 1'!AG99)</f>
+        <v>4</v>
+      </c>
+      <c r="AG99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH99),-1,'Réponses au formulaire 1'!AH99)</f>
+        <v>3</v>
+      </c>
+      <c r="AH99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI99),-1,'Réponses au formulaire 1'!AI99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ99),-1,'Réponses au formulaire 1'!AJ99)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK99),-1,'Réponses au formulaire 1'!AK99)</f>
+        <v>3</v>
+      </c>
+      <c r="AK99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL99),-1,'Réponses au formulaire 1'!AL99)</f>
+        <v>3</v>
+      </c>
+      <c r="AL99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM99),-1,'Réponses au formulaire 1'!AM99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN99),-1,'Réponses au formulaire 1'!AN99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO99),-1,'Réponses au formulaire 1'!AO99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AO99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP99),-1,'Réponses au formulaire 1'!AP99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ99),-1,'Réponses au formulaire 1'!AQ99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR99),-1,'Réponses au formulaire 1'!AR99)</f>
+        <v>2</v>
+      </c>
+      <c r="AR99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS99),-1,'Réponses au formulaire 1'!AS99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT99),-1,'Réponses au formulaire 1'!AT99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU99),-1,'Réponses au formulaire 1'!AU99)</f>
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV99),-1,'Réponses au formulaire 1'!AV99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW99),-1,'Réponses au formulaire 1'!AW99)</f>
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX99),-1,'Réponses au formulaire 1'!AX99)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX99">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY99),-1,'Réponses au formulaire 1'!AY99)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" t="str">
+        <f>'Réponses au formulaire 1'!B100</f>
+        <v>Bensalem</v>
+      </c>
+      <c r="B100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C100),-1,'Réponses au formulaire 1'!C100)</f>
+        <v>-1</v>
+      </c>
+      <c r="C100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D100),-1,'Réponses au formulaire 1'!D100)</f>
+        <v>-1</v>
+      </c>
+      <c r="D100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E100),-1,'Réponses au formulaire 1'!E100)</f>
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F100),-1,'Réponses au formulaire 1'!F100)</f>
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G100),-1,'Réponses au formulaire 1'!G100)</f>
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H100),-1,'Réponses au formulaire 1'!H100)</f>
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I100),-1,'Réponses au formulaire 1'!I100)</f>
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J100),-1,'Réponses au formulaire 1'!J100)</f>
+        <v>-1</v>
+      </c>
+      <c r="J100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K100),-1,'Réponses au formulaire 1'!K100)</f>
+        <v>-1</v>
+      </c>
+      <c r="K100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L100),-1,'Réponses au formulaire 1'!L100)</f>
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M100),-1,'Réponses au formulaire 1'!M100)</f>
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N100),-1,'Réponses au formulaire 1'!N100)</f>
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O100),-1,'Réponses au formulaire 1'!O100)</f>
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P100),-1,'Réponses au formulaire 1'!P100)</f>
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q100),-1,'Réponses au formulaire 1'!Q100)</f>
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R100),-1,'Réponses au formulaire 1'!R100)</f>
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S100),-1,'Réponses au formulaire 1'!S100)</f>
+        <v>-1</v>
+      </c>
+      <c r="S100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T100),-1,'Réponses au formulaire 1'!T100)</f>
+        <v>-1</v>
+      </c>
+      <c r="T100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U100),-1,'Réponses au formulaire 1'!U100)</f>
+        <v>4</v>
+      </c>
+      <c r="U100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V100),-1,'Réponses au formulaire 1'!V100)</f>
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W100),-1,'Réponses au formulaire 1'!W100)</f>
+        <v>4</v>
+      </c>
+      <c r="W100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X100),-1,'Réponses au formulaire 1'!X100)</f>
+        <v>2</v>
+      </c>
+      <c r="X100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y100),-1,'Réponses au formulaire 1'!Y100)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z100),-1,'Réponses au formulaire 1'!Z100)</f>
+        <v>4</v>
+      </c>
+      <c r="Z100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA100),-1,'Réponses au formulaire 1'!AA100)</f>
+        <v>3</v>
+      </c>
+      <c r="AA100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB100),-1,'Réponses au formulaire 1'!AB100)</f>
+        <v>5</v>
+      </c>
+      <c r="AB100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC100),-1,'Réponses au formulaire 1'!AC100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD100),-1,'Réponses au formulaire 1'!AD100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE100),-1,'Réponses au formulaire 1'!AE100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF100),-1,'Réponses au formulaire 1'!AF100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG100),-1,'Réponses au formulaire 1'!AG100)</f>
+        <v>3</v>
+      </c>
+      <c r="AG100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH100),-1,'Réponses au formulaire 1'!AH100)</f>
+        <v>3</v>
+      </c>
+      <c r="AH100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI100),-1,'Réponses au formulaire 1'!AI100)</f>
+        <v>2</v>
+      </c>
+      <c r="AI100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ100),-1,'Réponses au formulaire 1'!AJ100)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK100),-1,'Réponses au formulaire 1'!AK100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL100),-1,'Réponses au formulaire 1'!AL100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM100),-1,'Réponses au formulaire 1'!AM100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN100),-1,'Réponses au formulaire 1'!AN100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO100),-1,'Réponses au formulaire 1'!AO100)</f>
+        <v>4</v>
+      </c>
+      <c r="AO100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP100),-1,'Réponses au formulaire 1'!AP100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ100),-1,'Réponses au formulaire 1'!AQ100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR100),-1,'Réponses au formulaire 1'!AR100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS100),-1,'Réponses au formulaire 1'!AS100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT100),-1,'Réponses au formulaire 1'!AT100)</f>
+        <v>3</v>
+      </c>
+      <c r="AT100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU100),-1,'Réponses au formulaire 1'!AU100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV100),-1,'Réponses au formulaire 1'!AV100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW100),-1,'Réponses au formulaire 1'!AW100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX100),-1,'Réponses au formulaire 1'!AX100)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY100),-1,'Réponses au formulaire 1'!AY100)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" t="str">
+        <f>'Réponses au formulaire 1'!B101</f>
+        <v>Bignamax</v>
+      </c>
+      <c r="B101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C101),-1,'Réponses au formulaire 1'!C101)</f>
+        <v>-1</v>
+      </c>
+      <c r="C101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D101),-1,'Réponses au formulaire 1'!D101)</f>
+        <v>-1</v>
+      </c>
+      <c r="D101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E101),-1,'Réponses au formulaire 1'!E101)</f>
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F101),-1,'Réponses au formulaire 1'!F101)</f>
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G101),-1,'Réponses au formulaire 1'!G101)</f>
+        <v>-1</v>
+      </c>
+      <c r="G101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H101),-1,'Réponses au formulaire 1'!H101)</f>
+        <v>-1</v>
+      </c>
+      <c r="H101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I101),-1,'Réponses au formulaire 1'!I101)</f>
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J101),-1,'Réponses au formulaire 1'!J101)</f>
+        <v>-1</v>
+      </c>
+      <c r="J101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K101),-1,'Réponses au formulaire 1'!K101)</f>
+        <v>-1</v>
+      </c>
+      <c r="K101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L101),-1,'Réponses au formulaire 1'!L101)</f>
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M101),-1,'Réponses au formulaire 1'!M101)</f>
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N101),-1,'Réponses au formulaire 1'!N101)</f>
+        <v>-1</v>
+      </c>
+      <c r="N101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O101),-1,'Réponses au formulaire 1'!O101)</f>
+        <v>-1</v>
+      </c>
+      <c r="O101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P101),-1,'Réponses au formulaire 1'!P101)</f>
+        <v>-1</v>
+      </c>
+      <c r="P101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q101),-1,'Réponses au formulaire 1'!Q101)</f>
+        <v>4</v>
+      </c>
+      <c r="Q101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R101),-1,'Réponses au formulaire 1'!R101)</f>
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S101),-1,'Réponses au formulaire 1'!S101)</f>
+        <v>-1</v>
+      </c>
+      <c r="S101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T101),-1,'Réponses au formulaire 1'!T101)</f>
+        <v>-1</v>
+      </c>
+      <c r="T101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U101),-1,'Réponses au formulaire 1'!U101)</f>
+        <v>4</v>
+      </c>
+      <c r="U101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V101),-1,'Réponses au formulaire 1'!V101)</f>
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W101),-1,'Réponses au formulaire 1'!W101)</f>
+        <v>4</v>
+      </c>
+      <c r="W101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X101),-1,'Réponses au formulaire 1'!X101)</f>
+        <v>3</v>
+      </c>
+      <c r="X101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y101),-1,'Réponses au formulaire 1'!Y101)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z101),-1,'Réponses au formulaire 1'!Z101)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA101),-1,'Réponses au formulaire 1'!AA101)</f>
+        <v>5</v>
+      </c>
+      <c r="AA101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB101),-1,'Réponses au formulaire 1'!AB101)</f>
+        <v>5</v>
+      </c>
+      <c r="AB101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC101),-1,'Réponses au formulaire 1'!AC101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD101),-1,'Réponses au formulaire 1'!AD101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE101),-1,'Réponses au formulaire 1'!AE101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF101),-1,'Réponses au formulaire 1'!AF101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG101),-1,'Réponses au formulaire 1'!AG101)</f>
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH101),-1,'Réponses au formulaire 1'!AH101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI101),-1,'Réponses au formulaire 1'!AI101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ101),-1,'Réponses au formulaire 1'!AJ101)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK101),-1,'Réponses au formulaire 1'!AK101)</f>
+        <v>4</v>
+      </c>
+      <c r="AK101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL101),-1,'Réponses au formulaire 1'!AL101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM101),-1,'Réponses au formulaire 1'!AM101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN101),-1,'Réponses au formulaire 1'!AN101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO101),-1,'Réponses au formulaire 1'!AO101)</f>
+        <v>5</v>
+      </c>
+      <c r="AO101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP101),-1,'Réponses au formulaire 1'!AP101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ101),-1,'Réponses au formulaire 1'!AQ101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR101),-1,'Réponses au formulaire 1'!AR101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS101),-1,'Réponses au formulaire 1'!AS101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT101),-1,'Réponses au formulaire 1'!AT101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU101),-1,'Réponses au formulaire 1'!AU101)</f>
+        <v>3</v>
+      </c>
+      <c r="AU101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV101),-1,'Réponses au formulaire 1'!AV101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW101),-1,'Réponses au formulaire 1'!AW101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX101),-1,'Réponses au formulaire 1'!AX101)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX101">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY101),-1,'Réponses au formulaire 1'!AY101)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" t="str">
+        <f>'Réponses au formulaire 1'!B102</f>
+        <v>Giandelio</v>
+      </c>
+      <c r="B102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C102),-1,'Réponses au formulaire 1'!C102)</f>
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D102),-1,'Réponses au formulaire 1'!D102)</f>
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E102),-1,'Réponses au formulaire 1'!E102)</f>
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F102),-1,'Réponses au formulaire 1'!F102)</f>
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G102),-1,'Réponses au formulaire 1'!G102)</f>
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H102),-1,'Réponses au formulaire 1'!H102)</f>
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I102),-1,'Réponses au formulaire 1'!I102)</f>
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J102),-1,'Réponses au formulaire 1'!J102)</f>
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K102),-1,'Réponses au formulaire 1'!K102)</f>
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L102),-1,'Réponses au formulaire 1'!L102)</f>
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M102),-1,'Réponses au formulaire 1'!M102)</f>
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N102),-1,'Réponses au formulaire 1'!N102)</f>
+        <v>5</v>
+      </c>
+      <c r="N102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O102),-1,'Réponses au formulaire 1'!O102)</f>
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P102),-1,'Réponses au formulaire 1'!P102)</f>
+        <v>5</v>
+      </c>
+      <c r="P102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q102),-1,'Réponses au formulaire 1'!Q102)</f>
+        <v>4</v>
+      </c>
+      <c r="Q102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R102),-1,'Réponses au formulaire 1'!R102)</f>
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S102),-1,'Réponses au formulaire 1'!S102)</f>
+        <v>4</v>
+      </c>
+      <c r="S102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T102),-1,'Réponses au formulaire 1'!T102)</f>
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U102),-1,'Réponses au formulaire 1'!U102)</f>
+        <v>3</v>
+      </c>
+      <c r="U102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V102),-1,'Réponses au formulaire 1'!V102)</f>
+        <v>5</v>
+      </c>
+      <c r="V102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W102),-1,'Réponses au formulaire 1'!W102)</f>
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X102),-1,'Réponses au formulaire 1'!X102)</f>
+        <v>2</v>
+      </c>
+      <c r="X102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y102),-1,'Réponses au formulaire 1'!Y102)</f>
+        <v>5</v>
+      </c>
+      <c r="Y102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z102),-1,'Réponses au formulaire 1'!Z102)</f>
+        <v>2</v>
+      </c>
+      <c r="Z102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA102),-1,'Réponses au formulaire 1'!AA102)</f>
+        <v>4</v>
+      </c>
+      <c r="AA102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB102),-1,'Réponses au formulaire 1'!AB102)</f>
+        <v>4</v>
+      </c>
+      <c r="AB102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC102),-1,'Réponses au formulaire 1'!AC102)</f>
+        <v>3</v>
+      </c>
+      <c r="AC102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD102),-1,'Réponses au formulaire 1'!AD102)</f>
+        <v>4</v>
+      </c>
+      <c r="AD102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE102),-1,'Réponses au formulaire 1'!AE102)</f>
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF102),-1,'Réponses au formulaire 1'!AF102)</f>
+        <v>5</v>
+      </c>
+      <c r="AF102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG102),-1,'Réponses au formulaire 1'!AG102)</f>
+        <v>4</v>
+      </c>
+      <c r="AG102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH102),-1,'Réponses au formulaire 1'!AH102)</f>
+        <v>3</v>
+      </c>
+      <c r="AH102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI102),-1,'Réponses au formulaire 1'!AI102)</f>
+        <v>3</v>
+      </c>
+      <c r="AI102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ102),-1,'Réponses au formulaire 1'!AJ102)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK102),-1,'Réponses au formulaire 1'!AK102)</f>
+        <v>4</v>
+      </c>
+      <c r="AK102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL102),-1,'Réponses au formulaire 1'!AL102)</f>
+        <v>4</v>
+      </c>
+      <c r="AL102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM102),-1,'Réponses au formulaire 1'!AM102)</f>
+        <v>3</v>
+      </c>
+      <c r="AM102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN102),-1,'Réponses au formulaire 1'!AN102)</f>
+        <v>3</v>
+      </c>
+      <c r="AN102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO102),-1,'Réponses au formulaire 1'!AO102)</f>
+        <v>3</v>
+      </c>
+      <c r="AO102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP102),-1,'Réponses au formulaire 1'!AP102)</f>
+        <v>3</v>
+      </c>
+      <c r="AP102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ102),-1,'Réponses au formulaire 1'!AQ102)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR102),-1,'Réponses au formulaire 1'!AR102)</f>
+        <v>4</v>
+      </c>
+      <c r="AR102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS102),-1,'Réponses au formulaire 1'!AS102)</f>
+        <v>2</v>
+      </c>
+      <c r="AS102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT102),-1,'Réponses au formulaire 1'!AT102)</f>
+        <v>3</v>
+      </c>
+      <c r="AT102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU102),-1,'Réponses au formulaire 1'!AU102)</f>
+        <v>4</v>
+      </c>
+      <c r="AU102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV102),-1,'Réponses au formulaire 1'!AV102)</f>
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW102),-1,'Réponses au formulaire 1'!AW102)</f>
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX102),-1,'Réponses au formulaire 1'!AX102)</f>
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY102),-1,'Réponses au formulaire 1'!AY102)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" t="str">
+        <f>'Réponses au formulaire 1'!B103</f>
+        <v>Geekman</v>
+      </c>
+      <c r="B103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C103),-1,'Réponses au formulaire 1'!C103)</f>
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D103),-1,'Réponses au formulaire 1'!D103)</f>
+        <v>-1</v>
+      </c>
+      <c r="D103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E103),-1,'Réponses au formulaire 1'!E103)</f>
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F103),-1,'Réponses au formulaire 1'!F103)</f>
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G103),-1,'Réponses au formulaire 1'!G103)</f>
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H103),-1,'Réponses au formulaire 1'!H103)</f>
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I103),-1,'Réponses au formulaire 1'!I103)</f>
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J103),-1,'Réponses au formulaire 1'!J103)</f>
+        <v>-1</v>
+      </c>
+      <c r="J103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K103),-1,'Réponses au formulaire 1'!K103)</f>
+        <v>-1</v>
+      </c>
+      <c r="K103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L103),-1,'Réponses au formulaire 1'!L103)</f>
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M103),-1,'Réponses au formulaire 1'!M103)</f>
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N103),-1,'Réponses au formulaire 1'!N103)</f>
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O103),-1,'Réponses au formulaire 1'!O103)</f>
+        <v>3</v>
+      </c>
+      <c r="O103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P103),-1,'Réponses au formulaire 1'!P103)</f>
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q103),-1,'Réponses au formulaire 1'!Q103)</f>
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R103),-1,'Réponses au formulaire 1'!R103)</f>
+        <v>-1</v>
+      </c>
+      <c r="R103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S103),-1,'Réponses au formulaire 1'!S103)</f>
+        <v>4</v>
+      </c>
+      <c r="S103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T103),-1,'Réponses au formulaire 1'!T103)</f>
+        <v>-1</v>
+      </c>
+      <c r="T103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U103),-1,'Réponses au formulaire 1'!U103)</f>
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V103),-1,'Réponses au formulaire 1'!V103)</f>
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W103),-1,'Réponses au formulaire 1'!W103)</f>
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X103),-1,'Réponses au formulaire 1'!X103)</f>
+        <v>4</v>
+      </c>
+      <c r="X103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y103),-1,'Réponses au formulaire 1'!Y103)</f>
+        <v>5</v>
+      </c>
+      <c r="Y103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z103),-1,'Réponses au formulaire 1'!Z103)</f>
+        <v>5</v>
+      </c>
+      <c r="Z103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA103),-1,'Réponses au formulaire 1'!AA103)</f>
+        <v>3</v>
+      </c>
+      <c r="AA103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB103),-1,'Réponses au formulaire 1'!AB103)</f>
+        <v>4</v>
+      </c>
+      <c r="AB103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC103),-1,'Réponses au formulaire 1'!AC103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD103),-1,'Réponses au formulaire 1'!AD103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE103),-1,'Réponses au formulaire 1'!AE103)</f>
+        <v>4</v>
+      </c>
+      <c r="AE103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF103),-1,'Réponses au formulaire 1'!AF103)</f>
+        <v>4</v>
+      </c>
+      <c r="AF103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG103),-1,'Réponses au formulaire 1'!AG103)</f>
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH103),-1,'Réponses au formulaire 1'!AH103)</f>
+        <v>4</v>
+      </c>
+      <c r="AH103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI103),-1,'Réponses au formulaire 1'!AI103)</f>
+        <v>5</v>
+      </c>
+      <c r="AI103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ103),-1,'Réponses au formulaire 1'!AJ103)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK103),-1,'Réponses au formulaire 1'!AK103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL103),-1,'Réponses au formulaire 1'!AL103)</f>
+        <v>4</v>
+      </c>
+      <c r="AL103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM103),-1,'Réponses au formulaire 1'!AM103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN103),-1,'Réponses au formulaire 1'!AN103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO103),-1,'Réponses au formulaire 1'!AO103)</f>
+        <v>5</v>
+      </c>
+      <c r="AO103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP103),-1,'Réponses au formulaire 1'!AP103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ103),-1,'Réponses au formulaire 1'!AQ103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR103),-1,'Réponses au formulaire 1'!AR103)</f>
+        <v>5</v>
+      </c>
+      <c r="AR103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS103),-1,'Réponses au formulaire 1'!AS103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT103),-1,'Réponses au formulaire 1'!AT103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU103),-1,'Réponses au formulaire 1'!AU103)</f>
+        <v>4</v>
+      </c>
+      <c r="AU103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV103),-1,'Réponses au formulaire 1'!AV103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW103),-1,'Réponses au formulaire 1'!AW103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX103),-1,'Réponses au formulaire 1'!AX103)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX103">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY103),-1,'Réponses au formulaire 1'!AY103)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" t="str">
+        <f>'Réponses au formulaire 1'!B104</f>
+        <v>Romain</v>
+      </c>
+      <c r="B104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C104),-1,'Réponses au formulaire 1'!C104)</f>
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D104),-1,'Réponses au formulaire 1'!D104)</f>
+        <v>-1</v>
+      </c>
+      <c r="D104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E104),-1,'Réponses au formulaire 1'!E104)</f>
+        <v>-1</v>
+      </c>
+      <c r="E104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F104),-1,'Réponses au formulaire 1'!F104)</f>
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G104),-1,'Réponses au formulaire 1'!G104)</f>
+        <v>-1</v>
+      </c>
+      <c r="G104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H104),-1,'Réponses au formulaire 1'!H104)</f>
+        <v>-1</v>
+      </c>
+      <c r="H104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I104),-1,'Réponses au formulaire 1'!I104)</f>
+        <v>-1</v>
+      </c>
+      <c r="I104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J104),-1,'Réponses au formulaire 1'!J104)</f>
+        <v>-1</v>
+      </c>
+      <c r="J104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K104),-1,'Réponses au formulaire 1'!K104)</f>
+        <v>-1</v>
+      </c>
+      <c r="K104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L104),-1,'Réponses au formulaire 1'!L104)</f>
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M104),-1,'Réponses au formulaire 1'!M104)</f>
+        <v>-1</v>
+      </c>
+      <c r="M104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N104),-1,'Réponses au formulaire 1'!N104)</f>
+        <v>-1</v>
+      </c>
+      <c r="N104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O104),-1,'Réponses au formulaire 1'!O104)</f>
+        <v>-1</v>
+      </c>
+      <c r="O104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P104),-1,'Réponses au formulaire 1'!P104)</f>
+        <v>-1</v>
+      </c>
+      <c r="P104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q104),-1,'Réponses au formulaire 1'!Q104)</f>
+        <v>5</v>
+      </c>
+      <c r="Q104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R104),-1,'Réponses au formulaire 1'!R104)</f>
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S104),-1,'Réponses au formulaire 1'!S104)</f>
+        <v>4</v>
+      </c>
+      <c r="S104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T104),-1,'Réponses au formulaire 1'!T104)</f>
+        <v>-1</v>
+      </c>
+      <c r="T104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U104),-1,'Réponses au formulaire 1'!U104)</f>
+        <v>-1</v>
+      </c>
+      <c r="U104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V104),-1,'Réponses au formulaire 1'!V104)</f>
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W104),-1,'Réponses au formulaire 1'!W104)</f>
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X104),-1,'Réponses au formulaire 1'!X104)</f>
+        <v>5</v>
+      </c>
+      <c r="X104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y104),-1,'Réponses au formulaire 1'!Y104)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z104),-1,'Réponses au formulaire 1'!Z104)</f>
+        <v>4</v>
+      </c>
+      <c r="Z104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA104),-1,'Réponses au formulaire 1'!AA104)</f>
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB104),-1,'Réponses au formulaire 1'!AB104)</f>
+        <v>2</v>
+      </c>
+      <c r="AB104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC104),-1,'Réponses au formulaire 1'!AC104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD104),-1,'Réponses au formulaire 1'!AD104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE104),-1,'Réponses au formulaire 1'!AE104)</f>
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF104),-1,'Réponses au formulaire 1'!AF104)</f>
+        <v>5</v>
+      </c>
+      <c r="AF104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG104),-1,'Réponses au formulaire 1'!AG104)</f>
+        <v>5</v>
+      </c>
+      <c r="AG104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH104),-1,'Réponses au formulaire 1'!AH104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI104),-1,'Réponses au formulaire 1'!AI104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ104),-1,'Réponses au formulaire 1'!AJ104)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK104),-1,'Réponses au formulaire 1'!AK104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL104),-1,'Réponses au formulaire 1'!AL104)</f>
+        <v>2</v>
+      </c>
+      <c r="AL104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM104),-1,'Réponses au formulaire 1'!AM104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN104),-1,'Réponses au formulaire 1'!AN104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO104),-1,'Réponses au formulaire 1'!AO104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AO104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP104),-1,'Réponses au formulaire 1'!AP104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ104),-1,'Réponses au formulaire 1'!AQ104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR104),-1,'Réponses au formulaire 1'!AR104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS104),-1,'Réponses au formulaire 1'!AS104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT104),-1,'Réponses au formulaire 1'!AT104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU104),-1,'Réponses au formulaire 1'!AU104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV104),-1,'Réponses au formulaire 1'!AV104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW104),-1,'Réponses au formulaire 1'!AW104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX104),-1,'Réponses au formulaire 1'!AX104)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX104">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY104),-1,'Réponses au formulaire 1'!AY104)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" t="str">
+        <f>'Réponses au formulaire 1'!B105</f>
+        <v>Alfred</v>
+      </c>
+      <c r="B105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C105),-1,'Réponses au formulaire 1'!C105)</f>
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D105),-1,'Réponses au formulaire 1'!D105)</f>
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E105),-1,'Réponses au formulaire 1'!E105)</f>
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F105),-1,'Réponses au formulaire 1'!F105)</f>
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G105),-1,'Réponses au formulaire 1'!G105)</f>
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H105),-1,'Réponses au formulaire 1'!H105)</f>
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I105),-1,'Réponses au formulaire 1'!I105)</f>
+        <v>-1</v>
+      </c>
+      <c r="I105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J105),-1,'Réponses au formulaire 1'!J105)</f>
+        <v>5</v>
+      </c>
+      <c r="J105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K105),-1,'Réponses au formulaire 1'!K105)</f>
+        <v>-1</v>
+      </c>
+      <c r="K105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L105),-1,'Réponses au formulaire 1'!L105)</f>
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M105),-1,'Réponses au formulaire 1'!M105)</f>
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N105),-1,'Réponses au formulaire 1'!N105)</f>
+        <v>-1</v>
+      </c>
+      <c r="N105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O105),-1,'Réponses au formulaire 1'!O105)</f>
+        <v>-1</v>
+      </c>
+      <c r="O105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P105),-1,'Réponses au formulaire 1'!P105)</f>
+        <v>-1</v>
+      </c>
+      <c r="P105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q105),-1,'Réponses au formulaire 1'!Q105)</f>
+        <v>2</v>
+      </c>
+      <c r="Q105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R105),-1,'Réponses au formulaire 1'!R105)</f>
+        <v>-1</v>
+      </c>
+      <c r="R105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S105),-1,'Réponses au formulaire 1'!S105)</f>
+        <v>-1</v>
+      </c>
+      <c r="S105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T105),-1,'Réponses au formulaire 1'!T105)</f>
+        <v>-1</v>
+      </c>
+      <c r="T105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U105),-1,'Réponses au formulaire 1'!U105)</f>
+        <v>-1</v>
+      </c>
+      <c r="U105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V105),-1,'Réponses au formulaire 1'!V105)</f>
+        <v>-1</v>
+      </c>
+      <c r="V105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W105),-1,'Réponses au formulaire 1'!W105)</f>
+        <v>2</v>
+      </c>
+      <c r="W105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X105),-1,'Réponses au formulaire 1'!X105)</f>
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y105),-1,'Réponses au formulaire 1'!Y105)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z105),-1,'Réponses au formulaire 1'!Z105)</f>
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA105),-1,'Réponses au formulaire 1'!AA105)</f>
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB105),-1,'Réponses au formulaire 1'!AB105)</f>
+        <v>3</v>
+      </c>
+      <c r="AB105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC105),-1,'Réponses au formulaire 1'!AC105)</f>
+        <v>2</v>
+      </c>
+      <c r="AC105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD105),-1,'Réponses au formulaire 1'!AD105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE105),-1,'Réponses au formulaire 1'!AE105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF105),-1,'Réponses au formulaire 1'!AF105)</f>
+        <v>3</v>
+      </c>
+      <c r="AF105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG105),-1,'Réponses au formulaire 1'!AG105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH105),-1,'Réponses au formulaire 1'!AH105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI105),-1,'Réponses au formulaire 1'!AI105)</f>
+        <v>2</v>
+      </c>
+      <c r="AI105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ105),-1,'Réponses au formulaire 1'!AJ105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK105),-1,'Réponses au formulaire 1'!AK105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL105),-1,'Réponses au formulaire 1'!AL105)</f>
+        <v>4</v>
+      </c>
+      <c r="AL105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM105),-1,'Réponses au formulaire 1'!AM105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN105),-1,'Réponses au formulaire 1'!AN105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO105),-1,'Réponses au formulaire 1'!AO105)</f>
+        <v>5</v>
+      </c>
+      <c r="AO105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP105),-1,'Réponses au formulaire 1'!AP105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ105),-1,'Réponses au formulaire 1'!AQ105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR105),-1,'Réponses au formulaire 1'!AR105)</f>
+        <v>4</v>
+      </c>
+      <c r="AR105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS105),-1,'Réponses au formulaire 1'!AS105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT105),-1,'Réponses au formulaire 1'!AT105)</f>
+        <v>4</v>
+      </c>
+      <c r="AT105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU105),-1,'Réponses au formulaire 1'!AU105)</f>
+        <v>5</v>
+      </c>
+      <c r="AU105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV105),-1,'Réponses au formulaire 1'!AV105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW105),-1,'Réponses au formulaire 1'!AW105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX105),-1,'Réponses au formulaire 1'!AX105)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX105">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY105),-1,'Réponses au formulaire 1'!AY105)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" t="str">
+        <f>'Réponses au formulaire 1'!B106</f>
+        <v>Lucile</v>
+      </c>
+      <c r="B106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C106),-1,'Réponses au formulaire 1'!C106)</f>
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D106),-1,'Réponses au formulaire 1'!D106)</f>
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E106),-1,'Réponses au formulaire 1'!E106)</f>
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F106),-1,'Réponses au formulaire 1'!F106)</f>
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G106),-1,'Réponses au formulaire 1'!G106)</f>
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H106),-1,'Réponses au formulaire 1'!H106)</f>
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I106),-1,'Réponses au formulaire 1'!I106)</f>
+        <v>-1</v>
+      </c>
+      <c r="I106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J106),-1,'Réponses au formulaire 1'!J106)</f>
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K106),-1,'Réponses au formulaire 1'!K106)</f>
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L106),-1,'Réponses au formulaire 1'!L106)</f>
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M106),-1,'Réponses au formulaire 1'!M106)</f>
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N106),-1,'Réponses au formulaire 1'!N106)</f>
+        <v>-1</v>
+      </c>
+      <c r="N106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O106),-1,'Réponses au formulaire 1'!O106)</f>
+        <v>-1</v>
+      </c>
+      <c r="O106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P106),-1,'Réponses au formulaire 1'!P106)</f>
+        <v>-1</v>
+      </c>
+      <c r="P106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q106),-1,'Réponses au formulaire 1'!Q106)</f>
+        <v>5</v>
+      </c>
+      <c r="Q106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R106),-1,'Réponses au formulaire 1'!R106)</f>
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S106),-1,'Réponses au formulaire 1'!S106)</f>
+        <v>3</v>
+      </c>
+      <c r="S106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T106),-1,'Réponses au formulaire 1'!T106)</f>
+        <v>-1</v>
+      </c>
+      <c r="T106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U106),-1,'Réponses au formulaire 1'!U106)</f>
+        <v>-1</v>
+      </c>
+      <c r="U106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V106),-1,'Réponses au formulaire 1'!V106)</f>
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W106),-1,'Réponses au formulaire 1'!W106)</f>
+        <v>2</v>
+      </c>
+      <c r="W106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X106),-1,'Réponses au formulaire 1'!X106)</f>
+        <v>4</v>
+      </c>
+      <c r="X106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y106),-1,'Réponses au formulaire 1'!Y106)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z106),-1,'Réponses au formulaire 1'!Z106)</f>
+        <v>4</v>
+      </c>
+      <c r="Z106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA106),-1,'Réponses au formulaire 1'!AA106)</f>
+        <v>3</v>
+      </c>
+      <c r="AA106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB106),-1,'Réponses au formulaire 1'!AB106)</f>
+        <v>3</v>
+      </c>
+      <c r="AB106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC106),-1,'Réponses au formulaire 1'!AC106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AC106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD106),-1,'Réponses au formulaire 1'!AD106)</f>
+        <v>4</v>
+      </c>
+      <c r="AD106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE106),-1,'Réponses au formulaire 1'!AE106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF106),-1,'Réponses au formulaire 1'!AF106)</f>
+        <v>4</v>
+      </c>
+      <c r="AF106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG106),-1,'Réponses au formulaire 1'!AG106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH106),-1,'Réponses au formulaire 1'!AH106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI106),-1,'Réponses au formulaire 1'!AI106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ106),-1,'Réponses au formulaire 1'!AJ106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK106),-1,'Réponses au formulaire 1'!AK106)</f>
+        <v>4</v>
+      </c>
+      <c r="AK106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL106),-1,'Réponses au formulaire 1'!AL106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM106),-1,'Réponses au formulaire 1'!AM106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN106),-1,'Réponses au formulaire 1'!AN106)</f>
+        <v>4</v>
+      </c>
+      <c r="AN106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO106),-1,'Réponses au formulaire 1'!AO106)</f>
+        <v>3</v>
+      </c>
+      <c r="AO106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP106),-1,'Réponses au formulaire 1'!AP106)</f>
+        <v>5</v>
+      </c>
+      <c r="AP106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ106),-1,'Réponses au formulaire 1'!AQ106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR106),-1,'Réponses au formulaire 1'!AR106)</f>
+        <v>4</v>
+      </c>
+      <c r="AR106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS106),-1,'Réponses au formulaire 1'!AS106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT106),-1,'Réponses au formulaire 1'!AT106)</f>
+        <v>5</v>
+      </c>
+      <c r="AT106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU106),-1,'Réponses au formulaire 1'!AU106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV106),-1,'Réponses au formulaire 1'!AV106)</f>
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW106),-1,'Réponses au formulaire 1'!AW106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX106),-1,'Réponses au formulaire 1'!AX106)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX106">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY106),-1,'Réponses au formulaire 1'!AY106)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" t="str">
+        <f>'Réponses au formulaire 1'!B107</f>
+        <v>Miguel</v>
+      </c>
+      <c r="B107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!C107),-1,'Réponses au formulaire 1'!C107)</f>
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!D107),-1,'Réponses au formulaire 1'!D107)</f>
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!E107),-1,'Réponses au formulaire 1'!E107)</f>
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!F107),-1,'Réponses au formulaire 1'!F107)</f>
+        <v>-1</v>
+      </c>
+      <c r="F107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!G107),-1,'Réponses au formulaire 1'!G107)</f>
+        <v>-1</v>
+      </c>
+      <c r="G107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!H107),-1,'Réponses au formulaire 1'!H107)</f>
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!I107),-1,'Réponses au formulaire 1'!I107)</f>
+        <v>-1</v>
+      </c>
+      <c r="I107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!J107),-1,'Réponses au formulaire 1'!J107)</f>
+        <v>4</v>
+      </c>
+      <c r="J107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!K107),-1,'Réponses au formulaire 1'!K107)</f>
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!L107),-1,'Réponses au formulaire 1'!L107)</f>
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!M107),-1,'Réponses au formulaire 1'!M107)</f>
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!N107),-1,'Réponses au formulaire 1'!N107)</f>
+        <v>-1</v>
+      </c>
+      <c r="N107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!O107),-1,'Réponses au formulaire 1'!O107)</f>
+        <v>-1</v>
+      </c>
+      <c r="O107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!P107),-1,'Réponses au formulaire 1'!P107)</f>
+        <v>-1</v>
+      </c>
+      <c r="P107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Q107),-1,'Réponses au formulaire 1'!Q107)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!R107),-1,'Réponses au formulaire 1'!R107)</f>
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!S107),-1,'Réponses au formulaire 1'!S107)</f>
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!T107),-1,'Réponses au formulaire 1'!T107)</f>
+        <v>-1</v>
+      </c>
+      <c r="T107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!U107),-1,'Réponses au formulaire 1'!U107)</f>
+        <v>3</v>
+      </c>
+      <c r="U107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!V107),-1,'Réponses au formulaire 1'!V107)</f>
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!W107),-1,'Réponses au formulaire 1'!W107)</f>
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!X107),-1,'Réponses au formulaire 1'!X107)</f>
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Y107),-1,'Réponses au formulaire 1'!Y107)</f>
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!Z107),-1,'Réponses au formulaire 1'!Z107)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AA107),-1,'Réponses au formulaire 1'!AA107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AB107),-1,'Réponses au formulaire 1'!AB107)</f>
+        <v>3</v>
+      </c>
+      <c r="AB107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AC107),-1,'Réponses au formulaire 1'!AC107)</f>
+        <v>4</v>
+      </c>
+      <c r="AC107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AD107),-1,'Réponses au formulaire 1'!AD107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AE107),-1,'Réponses au formulaire 1'!AE107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AF107),-1,'Réponses au formulaire 1'!AF107)</f>
+        <v>2</v>
+      </c>
+      <c r="AF107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AG107),-1,'Réponses au formulaire 1'!AG107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AG107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AH107),-1,'Réponses au formulaire 1'!AH107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AH107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AI107),-1,'Réponses au formulaire 1'!AI107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AI107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AJ107),-1,'Réponses au formulaire 1'!AJ107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AK107),-1,'Réponses au formulaire 1'!AK107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AK107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AL107),-1,'Réponses au formulaire 1'!AL107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AM107),-1,'Réponses au formulaire 1'!AM107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AM107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AN107),-1,'Réponses au formulaire 1'!AN107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AN107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AO107),-1,'Réponses au formulaire 1'!AO107)</f>
+        <v>4</v>
+      </c>
+      <c r="AO107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AP107),-1,'Réponses au formulaire 1'!AP107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AP107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AQ107),-1,'Réponses au formulaire 1'!AQ107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AR107),-1,'Réponses au formulaire 1'!AR107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AR107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AS107),-1,'Réponses au formulaire 1'!AS107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AS107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AT107),-1,'Réponses au formulaire 1'!AT107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AT107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AU107),-1,'Réponses au formulaire 1'!AU107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AU107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AV107),-1,'Réponses au formulaire 1'!AV107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AV107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AW107),-1,'Réponses au formulaire 1'!AW107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AX107),-1,'Réponses au formulaire 1'!AX107)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX107">
+        <f>IF(ISBLANK('Réponses au formulaire 1'!AY107),-1,'Réponses au formulaire 1'!AY107)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
